--- a/100runs/run091/NotionalETEOutput091.xlsx
+++ b/100runs/run091/NotionalETEOutput091.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,16 +49,28 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_SOMERSAULT_State_Update</t>
+  </si>
+  <si>
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_399.MISSILE_HELLMASKER_399</t>
+    <t>MISSILE_SOMERSAULT_85.MISSILE_SOMERSAULT_85</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_250.MISSILE_BRAVER_250</t>
+    <t>MISSILE_HELLMASKER_371.MISSILE_HELLMASKER_371</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_142.MISSILE_SOMERSAULT_142</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_469.MISSILE_BRAVER_469</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
   <si>
     <t>MISSILE_HELLMASKER</t>
@@ -422,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,31 +483,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>221.1935477237088</v>
+        <v>1116579.113580989</v>
       </c>
       <c r="G2">
-        <v>-86.55223628533813</v>
+        <v>4841123.475853017</v>
       </c>
       <c r="H2">
-        <v>811.1415561730677</v>
+        <v>3985232.703168849</v>
       </c>
       <c r="I2">
-        <v>-764.3512366201613</v>
+        <v>1114864.008008978</v>
       </c>
       <c r="J2">
-        <v>1738.990823129624</v>
+        <v>4843222.936520701</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984365.602399754</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,31 +518,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>221.1935477237088</v>
+        <v>1116579.113580989</v>
       </c>
       <c r="G3">
-        <v>-86.55223628533813</v>
+        <v>4841123.475853017</v>
       </c>
       <c r="H3">
-        <v>811.1415561730677</v>
+        <v>3985232.703168849</v>
       </c>
       <c r="I3">
-        <v>-749.2609079427186</v>
+        <v>1114893.622075849</v>
       </c>
       <c r="J3">
-        <v>1696.688490393695</v>
+        <v>4843174.284935863</v>
       </c>
       <c r="K3">
-        <v>171.3348193689587</v>
+        <v>3984669.398031938</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,31 +553,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>221.1935477237088</v>
+        <v>1116579.113580989</v>
       </c>
       <c r="G4">
-        <v>-86.55223628533813</v>
+        <v>4841123.475853017</v>
       </c>
       <c r="H4">
-        <v>811.1415561730677</v>
+        <v>3985232.703168849</v>
       </c>
       <c r="I4">
-        <v>-733.7989938044418</v>
+        <v>1114923.965361873</v>
       </c>
       <c r="J4">
-        <v>1654.386157657766</v>
+        <v>4843125.633351022</v>
       </c>
       <c r="K4">
-        <v>334.1260992735639</v>
+        <v>3984958.045021353</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,31 +588,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>221.1935477237088</v>
+        <v>1116579.113580989</v>
       </c>
       <c r="G5">
-        <v>-86.55223628533813</v>
+        <v>4841123.475853017</v>
       </c>
       <c r="H5">
-        <v>811.1415561730677</v>
+        <v>3985232.703168849</v>
       </c>
       <c r="I5">
-        <v>-717.95634425521</v>
+        <v>1114955.055823399</v>
       </c>
       <c r="J5">
-        <v>1612.083824921838</v>
+        <v>4843076.981766184</v>
       </c>
       <c r="K5">
-        <v>488.3738397138166</v>
+        <v>3985231.543367998</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,31 +623,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>221.1935477237088</v>
+        <v>1116579.113580989</v>
       </c>
       <c r="G6">
-        <v>-86.55223628533813</v>
+        <v>4841123.475853017</v>
       </c>
       <c r="H6">
-        <v>811.1415561730677</v>
+        <v>3985232.703168849</v>
       </c>
       <c r="I6">
-        <v>-701.7235840357988</v>
+        <v>1114986.911858938</v>
       </c>
       <c r="J6">
-        <v>1569.781492185909</v>
+        <v>4843028.330181345</v>
       </c>
       <c r="K6">
-        <v>634.078040689716</v>
+        <v>3985489.893071873</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,31 +658,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>221.1935477237088</v>
+        <v>1116579.113580989</v>
       </c>
       <c r="G7">
-        <v>-86.55223628533813</v>
+        <v>4841123.475853017</v>
       </c>
       <c r="H7">
-        <v>811.1415561730677</v>
+        <v>3985232.703168849</v>
       </c>
       <c r="I7">
-        <v>-685.0911070298498</v>
+        <v>1115019.552320045</v>
       </c>
       <c r="J7">
-        <v>1527.47915944998</v>
+        <v>4842979.678596506</v>
       </c>
       <c r="K7">
-        <v>771.2387022012632</v>
+        <v>3985733.094132978</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,31 +693,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>221.1935477237088</v>
+        <v>1116579.113580989</v>
       </c>
       <c r="G8">
-        <v>-86.55223628533813</v>
+        <v>4841123.475853017</v>
       </c>
       <c r="H8">
-        <v>811.1415561730677</v>
+        <v>3985232.703168849</v>
       </c>
       <c r="I8">
-        <v>-668.0490705792279</v>
+        <v>1115052.996522478</v>
       </c>
       <c r="J8">
-        <v>1485.176826714051</v>
+        <v>4842931.027011666</v>
       </c>
       <c r="K8">
-        <v>899.8558242484572</v>
+        <v>3985961.146551312</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,31 +728,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>221.1935477237088</v>
+        <v>1116579.113580989</v>
       </c>
       <c r="G9">
-        <v>-86.55223628533813</v>
+        <v>4841123.475853017</v>
       </c>
       <c r="H9">
-        <v>811.1415561730677</v>
+        <v>3985232.703168849</v>
       </c>
       <c r="I9">
-        <v>-650.5873896593954</v>
+        <v>1115087.264257628</v>
       </c>
       <c r="J9">
-        <v>1442.874493978122</v>
+        <v>4842882.375426828</v>
       </c>
       <c r="K9">
-        <v>1019.929406831298</v>
+        <v>3986174.050326877</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,31 +763,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>221.1935477237088</v>
+        <v>1116579.113580989</v>
       </c>
       <c r="G10">
-        <v>-72.26002578945929</v>
+        <v>4841139.988668519</v>
       </c>
       <c r="H10">
-        <v>811.1415561730677</v>
+        <v>3985232.703168849</v>
       </c>
       <c r="I10">
-        <v>-632.695730911364</v>
+        <v>1115122.37580423</v>
       </c>
       <c r="J10">
-        <v>1400.572161242193</v>
+        <v>4842833.723841988</v>
       </c>
       <c r="K10">
-        <v>1131.459449949786</v>
+        <v>3986371.805459672</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,31 +798,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>171.6719966895527</v>
+        <v>1116530.432990636</v>
       </c>
       <c r="G11">
-        <v>-57.96781529358047</v>
+        <v>4841156.50148402</v>
       </c>
       <c r="H11">
-        <v>999.3209389884132</v>
+        <v>3985431.957794357</v>
       </c>
       <c r="I11">
-        <v>-614.3635065266864</v>
+        <v>1115158.351940365</v>
       </c>
       <c r="J11">
-        <v>1358.269828506265</v>
+        <v>4842785.07225715</v>
       </c>
       <c r="K11">
-        <v>1234.445953603921</v>
+        <v>3986554.411949697</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,31 +833,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>142.5805697261582</v>
+        <v>1116501.835585886</v>
       </c>
       <c r="G12">
-        <v>-43.67560479770165</v>
+        <v>4841173.014299521</v>
       </c>
       <c r="H12">
-        <v>1111.410203252232</v>
+        <v>3985550.644039578</v>
       </c>
       <c r="I12">
-        <v>-595.5798679818735</v>
+        <v>1115195.213955755</v>
       </c>
       <c r="J12">
-        <v>1315.967495770336</v>
+        <v>4842736.420672311</v>
       </c>
       <c r="K12">
-        <v>1328.888917793704</v>
+        <v>3986721.869796953</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,31 +868,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>124.2159267717985</v>
+        <v>1116483.782805996</v>
       </c>
       <c r="G13">
-        <v>-29.38339430182283</v>
+        <v>4841189.527115023</v>
       </c>
       <c r="H13">
-        <v>1191.51282459783</v>
+        <v>3985635.46107734</v>
       </c>
       <c r="I13">
-        <v>-576.3336996185246</v>
+        <v>1115232.983664362</v>
       </c>
       <c r="J13">
-        <v>1273.665163034407</v>
+        <v>4842687.769087471</v>
       </c>
       <c r="K13">
-        <v>1414.788342519133</v>
+        <v>3986874.179001438</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,31 +903,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>111.4084993218902</v>
+        <v>1116471.192870581</v>
       </c>
       <c r="G14">
-        <v>-15.091183805944</v>
+        <v>4841206.039930523</v>
       </c>
       <c r="H14">
-        <v>1253.888692924636</v>
+        <v>3985701.508059205</v>
       </c>
       <c r="I14">
-        <v>-556.613612065379</v>
+        <v>1115271.683417295</v>
       </c>
       <c r="J14">
-        <v>1231.362830298478</v>
+        <v>4842639.117502633</v>
       </c>
       <c r="K14">
-        <v>1492.14422778021</v>
+        <v>3987011.339563154</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>101.8537749055671</v>
+        <v>1116461.800401736</v>
       </c>
       <c r="G15">
-        <v>-0.7989733100651858</v>
+        <v>4841222.552746025</v>
       </c>
       <c r="H15">
-        <v>1304.979367397658</v>
+        <v>3985755.605660424</v>
       </c>
       <c r="I15">
-        <v>-536.407935498385</v>
+        <v>1115311.336116042</v>
       </c>
       <c r="J15">
-        <v>1189.060497562549</v>
+        <v>4842590.465917794</v>
       </c>
       <c r="K15">
-        <v>1560.956573576933</v>
+        <v>3987133.351482099</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,31 +973,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>94.38331468971016</v>
+        <v>1116454.456802719</v>
       </c>
       <c r="G16">
-        <v>13.49323718581364</v>
+        <v>4841239.065561526</v>
       </c>
       <c r="H16">
-        <v>1348.249439237829</v>
+        <v>3985801.422379722</v>
       </c>
       <c r="I16">
-        <v>-515.7047127348103</v>
+        <v>1115351.965226015</v>
       </c>
       <c r="J16">
-        <v>1146.758164826621</v>
+        <v>4842541.814332954</v>
       </c>
       <c r="K16">
-        <v>1621.225379909304</v>
+        <v>3987240.214758276</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,31 +1008,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>88.33916843303768</v>
+        <v>1116448.515296408</v>
       </c>
       <c r="G17">
-        <v>27.78544768169247</v>
+        <v>4841255.578377027</v>
       </c>
       <c r="H17">
-        <v>1385.778345904645</v>
+        <v>3985841.160039245</v>
       </c>
       <c r="I17">
-        <v>-494.4916921572982</v>
+        <v>1115393.594790443</v>
       </c>
       <c r="J17">
-        <v>1104.455832090692</v>
+        <v>4842493.162748115</v>
       </c>
       <c r="K17">
-        <v>1672.950646777322</v>
+        <v>3987331.929391681</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,31 +1043,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.32037339003838</v>
+        <v>1116443.581729094</v>
       </c>
       <c r="G18">
-        <v>42.07765817757129</v>
+        <v>4841272.091192529</v>
       </c>
       <c r="H18">
-        <v>1418.912656867329</v>
+        <v>3985876.244460416</v>
       </c>
       <c r="I18">
-        <v>-472.7563204636861</v>
+        <v>1115436.249444597</v>
       </c>
       <c r="J18">
-        <v>1062.153499354763</v>
+        <v>4842444.511163276</v>
       </c>
       <c r="K18">
-        <v>1716.132374180987</v>
+        <v>3987408.495382317</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,31 +1078,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.06732220850424</v>
+        <v>1116439.400901999</v>
       </c>
       <c r="G19">
-        <v>56.36986867345012</v>
+        <v>4841288.604008029</v>
       </c>
       <c r="H19">
-        <v>1448.574532759175</v>
+        <v>3985907.652077362</v>
       </c>
       <c r="I19">
-        <v>-450.4857352382939</v>
+        <v>1115479.954430368</v>
       </c>
       <c r="J19">
-        <v>1019.851166618834</v>
+        <v>4842395.859578437</v>
       </c>
       <c r="K19">
-        <v>1750.770562120299</v>
+        <v>3987469.912730183</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,31 +1113,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>75.4037335448437</v>
+        <v>1116435.799527341</v>
       </c>
       <c r="G20">
-        <v>70.66207916932893</v>
+        <v>4841305.116823531</v>
       </c>
       <c r="H20">
-        <v>1475.423241415129</v>
+        <v>3985936.080958935</v>
       </c>
       <c r="I20">
-        <v>-427.6667573402891</v>
+        <v>1115524.735611205</v>
       </c>
       <c r="J20">
-        <v>977.5488338829056</v>
+        <v>4842347.207993598</v>
       </c>
       <c r="K20">
-        <v>1776.865210595258</v>
+        <v>3987516.181435279</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,31 +1148,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>72.20523133748772</v>
+        <v>1116432.655341174</v>
       </c>
       <c r="G21">
-        <v>84.95428966520775</v>
+        <v>4841321.629639032</v>
       </c>
       <c r="H21">
-        <v>1499.946471129088</v>
+        <v>3985962.047496182</v>
       </c>
       <c r="I21">
-        <v>-404.2858831046209</v>
+        <v>1115570.619487423</v>
       </c>
       <c r="J21">
-        <v>935.2465011469767</v>
+        <v>4842298.556408758</v>
       </c>
       <c r="K21">
-        <v>1794.416319605864</v>
+        <v>3987547.301497606</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,31 +1183,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.38125619357642</v>
+        <v>1116429.879321961</v>
       </c>
       <c r="G22">
-        <v>99.24650016108659</v>
+        <v>4841338.142454533</v>
       </c>
       <c r="H22">
-        <v>1522.515146443639</v>
+        <v>3985985.9444443</v>
       </c>
       <c r="I22">
-        <v>-380.329276350909</v>
+        <v>1115617.63321188</v>
       </c>
       <c r="J22">
-        <v>892.9441684110479</v>
+        <v>4842249.90482392</v>
       </c>
       <c r="K22">
-        <v>1803.423889152118</v>
+        <v>3987563.272917162</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,31 +1218,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.86411463639827</v>
+        <v>1116427.404925775</v>
       </c>
       <c r="G23">
-        <v>113.5387106569654</v>
+        <v>4841354.655270034</v>
       </c>
       <c r="H23">
-        <v>1543.417963374052</v>
+        <v>3986008.077490424</v>
       </c>
       <c r="I23">
-        <v>-355.782760195561</v>
+        <v>1115665.80460605</v>
       </c>
       <c r="J23">
-        <v>850.6418356751191</v>
+        <v>4842201.253239081</v>
       </c>
       <c r="K23">
-        <v>1803.887919234018</v>
+        <v>3987564.095693948</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,31 +1253,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.60206541762646</v>
+        <v>1116425.181290023</v>
       </c>
       <c r="G24">
-        <v>127.8309211528442</v>
+        <v>4841371.168085536</v>
       </c>
       <c r="H24">
-        <v>1562.884030980831</v>
+        <v>3986028.689227763</v>
       </c>
       <c r="I24">
-        <v>-330.6318086622686</v>
+        <v>1115715.162176485</v>
       </c>
       <c r="J24">
-        <v>808.3395029391902</v>
+        <v>4842152.601654241</v>
       </c>
       <c r="K24">
-        <v>1795.808409851566</v>
+        <v>3987549.769827964</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,31 +1288,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.55479678832305</v>
+        <v>1116423.168787518</v>
       </c>
       <c r="G25">
-        <v>142.1231316487231</v>
+        <v>4841387.680901037</v>
       </c>
       <c r="H25">
-        <v>1581.098219411777</v>
+        <v>3986047.975406942</v>
       </c>
       <c r="I25">
-        <v>-304.8615380859196</v>
+        <v>1115765.735131683</v>
       </c>
       <c r="J25">
-        <v>766.0371702032616</v>
+        <v>4842103.950069402</v>
       </c>
       <c r="K25">
-        <v>1779.18536100476</v>
+        <v>3987520.295319211</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,31 +1323,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.69037643228841</v>
+        <v>1116421.33602821</v>
       </c>
       <c r="G26">
-        <v>156.4153421446019</v>
+        <v>4841404.193716538</v>
       </c>
       <c r="H26">
-        <v>1598.211863924867</v>
+        <v>3986066.096270011</v>
       </c>
       <c r="I26">
-        <v>-278.4566983048425</v>
+        <v>1115817.553399377</v>
       </c>
       <c r="J26">
-        <v>723.7348374673326</v>
+        <v>4842055.298484564</v>
       </c>
       <c r="K26">
-        <v>1754.018772693602</v>
+        <v>3987475.672167688</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,31 +1358,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.98313958825618</v>
+        <v>1116419.65778317</v>
       </c>
       <c r="G27">
-        <v>170.7075526404807</v>
+        <v>4841420.706532039</v>
       </c>
       <c r="H27">
-        <v>1614.350415325852</v>
+        <v>3986083.184651148</v>
       </c>
       <c r="I27">
-        <v>-251.4016636361634</v>
+        <v>1115870.647644241</v>
       </c>
       <c r="J27">
-        <v>681.4325047314037</v>
+        <v>4842006.646899723</v>
       </c>
       <c r="K27">
-        <v>1720.308644918091</v>
+        <v>3987415.900373395</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,31 +1393,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.41219266674163</v>
+        <v>1116418.113513615</v>
       </c>
       <c r="G28">
-        <v>184.9997631363595</v>
+        <v>4841437.21934754</v>
       </c>
       <c r="H28">
-        <v>1629.619025968548</v>
+        <v>3986099.351891417</v>
       </c>
       <c r="I28">
-        <v>-223.6804236289439</v>
+        <v>1115925.049286039</v>
       </c>
       <c r="J28">
-        <v>639.1301719954751</v>
+        <v>4841957.995314885</v>
       </c>
       <c r="K28">
-        <v>1678.054977678227</v>
+        <v>3987340.979936332</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,31 +1428,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>55.9603311959021</v>
+        <v>1116416.686307236</v>
       </c>
       <c r="G29">
-        <v>199.2919736322384</v>
+        <v>4841453.732163042</v>
       </c>
       <c r="H29">
-        <v>1644.106705719913</v>
+        <v>3986114.692239335</v>
       </c>
       <c r="I29">
-        <v>-195.2765735896193</v>
+        <v>1115980.790518218</v>
       </c>
       <c r="J29">
-        <v>596.8278392595462</v>
+        <v>4841909.343730046</v>
       </c>
       <c r="K29">
-        <v>1627.25777097401</v>
+        <v>3987250.910856499</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,31 +1463,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.61324310760505</v>
+        <v>1116415.362095009</v>
       </c>
       <c r="G30">
-        <v>213.5841841281172</v>
+        <v>4841470.244978543</v>
       </c>
       <c r="H30">
-        <v>1657.889465887117</v>
+        <v>3986129.286179832</v>
       </c>
       <c r="I30">
-        <v>-166.1733048741394</v>
+        <v>1116037.904326958</v>
       </c>
       <c r="J30">
-        <v>554.5255065236173</v>
+        <v>4841860.692145207</v>
       </c>
       <c r="K30">
-        <v>1567.91702480544</v>
+        <v>3987145.693133896</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,31 +1498,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.35891256197444</v>
+        <v>1116414.129065143</v>
       </c>
       <c r="G31">
-        <v>227.876394623996</v>
+        <v>4841486.757794045</v>
       </c>
       <c r="H31">
-        <v>1671.032733157902</v>
+        <v>3986143.202990264</v>
       </c>
       <c r="I31">
-        <v>-136.3533949410571</v>
+        <v>1116096.424510695</v>
       </c>
       <c r="J31">
-        <v>512.2231737876886</v>
+        <v>4841812.040560368</v>
       </c>
       <c r="K31">
-        <v>1500.032739172517</v>
+        <v>3987025.326768523</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,31 +1533,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>52.18716730025628</v>
+        <v>1116412.977218121</v>
       </c>
       <c r="G32">
-        <v>242.1686051198748</v>
+        <v>4841503.270609546</v>
       </c>
       <c r="H32">
-        <v>1683.593227954146</v>
+        <v>3986156.502729319</v>
       </c>
       <c r="I32">
-        <v>-105.7991971596868</v>
+        <v>1116156.385700118</v>
       </c>
       <c r="J32">
-        <v>469.9208410517597</v>
+        <v>4841763.388975528</v>
       </c>
       <c r="K32">
-        <v>1423.604914075242</v>
+        <v>3986889.81176038</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,31 +1568,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.08933042287271</v>
+        <v>1116411.898024392</v>
       </c>
       <c r="G33">
-        <v>256.4608156157536</v>
+        <v>4841519.783425047</v>
       </c>
       <c r="H33">
-        <v>1695.620443758553</v>
+        <v>3986169.237803401</v>
       </c>
       <c r="I33">
-        <v>-74.49263036729666</v>
+        <v>1116217.823378668</v>
       </c>
       <c r="J33">
-        <v>427.618508315831</v>
+        <v>4841714.73739069</v>
       </c>
       <c r="K33">
-        <v>1338.633549513613</v>
+        <v>3986739.148109468</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,31 +1603,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.05794928138064</v>
+        <v>1116410.884157867</v>
       </c>
       <c r="G34">
-        <v>270.7530261116325</v>
+        <v>4841536.296240549</v>
       </c>
       <c r="H34">
-        <v>1707.157825002668</v>
+        <v>3986181.454213853</v>
       </c>
       <c r="I34">
-        <v>-42.41516816915715</v>
+        <v>1116280.77390353</v>
       </c>
       <c r="J34">
-        <v>385.3161755799022</v>
+        <v>4841666.085805851</v>
       </c>
       <c r="K34">
-        <v>1245.118645487632</v>
+        <v>3986573.335815785</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,31 +1638,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.08658209248097</v>
+        <v>1116409.929286156</v>
       </c>
       <c r="G35">
-        <v>285.0452366075113</v>
+        <v>4841552.809056049</v>
       </c>
       <c r="H35">
-        <v>1718.2437143471</v>
+        <v>3986193.192559982</v>
       </c>
       <c r="I35">
-        <v>-9.5478279751127</v>
+        <v>1116345.274527154</v>
       </c>
       <c r="J35">
-        <v>343.0138428439732</v>
+        <v>4841617.434221011</v>
       </c>
       <c r="K35">
-        <v>1143.060201997297</v>
+        <v>3986392.374879333</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,31 +1673,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.16962829703292</v>
+        <v>1116409.027903805</v>
       </c>
       <c r="G36">
-        <v>299.3374471033902</v>
+        <v>4841569.321871551</v>
       </c>
       <c r="H36">
-        <v>1728.91212149688</v>
+        <v>3986204.488853123</v>
       </c>
       <c r="I36">
-        <v>24.12884023381165</v>
+        <v>1116411.363419295</v>
       </c>
       <c r="J36">
-        <v>300.7115101080446</v>
+        <v>4841568.782636172</v>
       </c>
       <c r="K36">
-        <v>1032.45821904261</v>
+        <v>3986196.265300111</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,31 +1708,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.30219245044254</v>
+        <v>1116408.175198503</v>
       </c>
       <c r="G37">
-        <v>313.629657599269</v>
+        <v>4841585.834687052</v>
       </c>
       <c r="H37">
-        <v>1739.193352437898</v>
+        <v>3986215.375182913</v>
       </c>
       <c r="I37">
-        <v>58.63476541541407</v>
+        <v>1116479.079689604</v>
       </c>
       <c r="J37">
-        <v>258.4091773721157</v>
+        <v>4841520.131051334</v>
       </c>
       <c r="K37">
-        <v>913.3126966235702</v>
+        <v>3985985.007078119</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,31 +1743,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.47997408597505</v>
+        <v>1116407.366942814</v>
       </c>
       <c r="G38">
-        <v>327.9218680951478</v>
+        <v>4841602.347502553</v>
       </c>
       <c r="H38">
-        <v>1749.114528440725</v>
+        <v>3986225.880266835</v>
       </c>
       <c r="I38">
-        <v>93.99036725974466</v>
+        <v>1116548.463410772</v>
       </c>
       <c r="J38">
-        <v>216.106844636187</v>
+        <v>4841471.479466494</v>
       </c>
       <c r="K38">
-        <v>785.6236347401776</v>
+        <v>3985758.600213356</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,31 +1778,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.69917789191169</v>
+        <v>1116406.599405875</v>
       </c>
       <c r="G39">
-        <v>342.2140785910266</v>
+        <v>4841618.860318054</v>
       </c>
       <c r="H39">
-        <v>1758.700017222799</v>
+        <v>3986236.029906764</v>
       </c>
       <c r="I39">
-        <v>130.2165682729343</v>
+        <v>1116619.555642242</v>
       </c>
       <c r="J39">
-        <v>173.8045119002581</v>
+        <v>4841422.827881655</v>
       </c>
       <c r="K39">
-        <v>649.3910333924313</v>
+        <v>3985517.044705824</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,31 +1813,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.95643991960966</v>
+        <v>1116405.869280865</v>
       </c>
       <c r="G40">
-        <v>356.5062890869054</v>
+        <v>4841635.373133556</v>
       </c>
       <c r="H40">
-        <v>1767.971793527054</v>
+        <v>3986245.847370759</v>
       </c>
       <c r="I40">
-        <v>167.3348061585802</v>
+        <v>1116692.398454508</v>
       </c>
       <c r="J40">
-        <v>131.5021791643292</v>
+        <v>4841374.176296816</v>
       </c>
       <c r="K40">
-        <v>504.6148925803324</v>
+        <v>3985260.340555523</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,31 +1848,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.248766548422</v>
+        <v>1116405.173624998</v>
       </c>
       <c r="G41">
-        <v>370.7984995827842</v>
+        <v>4841651.885949057</v>
       </c>
       <c r="H41">
-        <v>1776.949742544429</v>
+        <v>3986255.353714347</v>
       </c>
       <c r="I41">
-        <v>205.3670465040068</v>
+        <v>1116767.034954011</v>
       </c>
       <c r="J41">
-        <v>89.19984642840055</v>
+        <v>4841325.524711977</v>
       </c>
       <c r="K41">
-        <v>351.2952123038809</v>
+        <v>3984988.487762451</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,31 +1883,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.57348368126755</v>
+        <v>1116404.50980959</v>
       </c>
       <c r="G42">
-        <v>385.0907100786631</v>
+        <v>4841668.398764558</v>
       </c>
       <c r="H42">
-        <v>1785.651916718909</v>
+        <v>3986264.568052445</v>
       </c>
       <c r="I42">
-        <v>244.3357957789209</v>
+        <v>1116843.509308651</v>
       </c>
       <c r="J42">
-        <v>46.89751369247167</v>
+        <v>4841276.873127138</v>
       </c>
       <c r="K42">
-        <v>189.4319925630761</v>
+        <v>3984701.486326609</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,31 +1918,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.92819420464834</v>
+        <v>1116403.875478233</v>
       </c>
       <c r="G43">
-        <v>399.3829205745419</v>
+        <v>4841684.91158006</v>
       </c>
       <c r="H43">
-        <v>1794.094754274229</v>
+        <v>3986273.507790742</v>
       </c>
       <c r="I43">
-        <v>284.2641146541374</v>
+        <v>1116921.866773919</v>
       </c>
       <c r="J43">
-        <v>4.595180956542785</v>
+        <v>4841228.221542299</v>
       </c>
       <c r="K43">
-        <v>19.02523335791846</v>
+        <v>3984399.336247998</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,31 +1953,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.31074217030363</v>
+        <v>1116403.268511591</v>
       </c>
       <c r="G44">
-        <v>413.6751310704207</v>
+        <v>4841701.42439556</v>
       </c>
       <c r="H44">
-        <v>1802.293266111218</v>
+        <v>3986282.188823602</v>
       </c>
       <c r="I44">
-        <v>325.175631648276</v>
+        <v>1117002.153719682</v>
       </c>
       <c r="J44">
-        <v>-37.7071517793859</v>
+        <v>4841179.569957459</v>
       </c>
       <c r="K44">
-        <v>-159.9250653115915</v>
+        <v>3984082.037526616</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,31 +1988,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.71918247866002</v>
+        <v>1116402.686997595</v>
       </c>
       <c r="G45">
-        <v>427.9673415662995</v>
+        <v>4841717.937211062</v>
       </c>
       <c r="H45">
-        <v>1810.26119641519</v>
+        <v>3986290.62570412</v>
       </c>
       <c r="I45">
-        <v>367.09455711049</v>
+        <v>1117084.417657621</v>
       </c>
       <c r="J45">
-        <v>-80.00948451531478</v>
+        <v>4841130.918372621</v>
       </c>
       <c r="K45">
-        <v>-347.418903445455</v>
+        <v>3983749.590162465</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,31 +2023,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.1517550926767</v>
+        <v>1116402.129206097</v>
       </c>
       <c r="G46">
-        <v>442.2595520621784</v>
+        <v>4841734.450026562</v>
       </c>
       <c r="H46">
-        <v>1818.011161289938</v>
+        <v>3986298.831790917</v>
       </c>
       <c r="I46">
-        <v>410.045697547507</v>
+        <v>1117168.70726935</v>
       </c>
       <c r="J46">
-        <v>-122.3118172512437</v>
+        <v>4841082.26678778</v>
       </c>
       <c r="K46">
-        <v>-543.4562810436718</v>
+        <v>3983401.994155544</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,31 +2058,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.60686300331255</v>
+        <v>1116401.593567208</v>
       </c>
       <c r="G47">
-        <v>456.5517625580572</v>
+        <v>4841750.962842064</v>
       </c>
       <c r="H47">
-        <v>1825.554768929957</v>
+        <v>3986306.819375385</v>
       </c>
       <c r="I47">
-        <v>454.0544703034608</v>
+        <v>1117255.072435223</v>
       </c>
       <c r="J47">
-        <v>-164.6141499871725</v>
+        <v>4841033.615202942</v>
       </c>
       <c r="K47">
-        <v>-748.0371981062411</v>
+        <v>3983039.249505853</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,31 +2093,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.08305331829651</v>
+        <v>1116401.078652708</v>
       </c>
       <c r="G48">
-        <v>470.843973053936</v>
+        <v>4841767.475657566</v>
       </c>
       <c r="H48">
-        <v>1832.90272420479</v>
+        <v>3986314.599792424</v>
       </c>
       <c r="I48">
-        <v>499.1469186012012</v>
+        <v>1117343.564263852</v>
       </c>
       <c r="J48">
-        <v>-206.916482723101</v>
+        <v>4840984.963618103</v>
       </c>
       <c r="K48">
-        <v>-961.1616546331618</v>
+        <v>3982661.356213392</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,31 +2128,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.57900096423221</v>
+        <v>1116400.583160025</v>
       </c>
       <c r="G49">
-        <v>485.1361835498149</v>
+        <v>4841783.988473066</v>
       </c>
       <c r="H49">
-        <v>1840.064920020593</v>
+        <v>3986322.183517186</v>
       </c>
       <c r="I49">
-        <v>545.3497269539822</v>
+        <v>1117434.23512235</v>
       </c>
       <c r="J49">
-        <v>-249.2188154590299</v>
+        <v>4840936.312033264</v>
       </c>
       <c r="K49">
-        <v>-1182.829650624437</v>
+        <v>3982268.314278161</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,31 +2163,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.09349458577319</v>
+        <v>1116400.105898376</v>
       </c>
       <c r="G50">
-        <v>499.4283940456937</v>
+        <v>4841800.501288569</v>
       </c>
       <c r="H50">
-        <v>1847.050517415679</v>
+        <v>3986329.580249878</v>
       </c>
       <c r="I50">
-        <v>592.6902369566459</v>
+        <v>1117527.138667322</v>
       </c>
       <c r="J50">
-        <v>-291.5211481949588</v>
+        <v>4840887.660448425</v>
       </c>
       <c r="K50">
-        <v>-1413.041186080065</v>
+        <v>3981860.12370016</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,31 +2198,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.62542430026762</v>
+        <v>1116399.645776725</v>
       </c>
       <c r="G51">
-        <v>513.7206045415725</v>
+        <v>4841817.01410407</v>
       </c>
       <c r="H51">
-        <v>1853.868016017084</v>
+        <v>3986336.798990371</v>
       </c>
       <c r="I51">
-        <v>641.1964634656545</v>
+        <v>1117622.329876619</v>
       </c>
       <c r="J51">
-        <v>-333.8234809308877</v>
+        <v>4840839.008863586</v>
       </c>
       <c r="K51">
-        <v>-1651.796261000046</v>
+        <v>3981436.784479389</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,31 +2233,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.17377102611574</v>
+        <v>1116399.201793296</v>
       </c>
       <c r="G52">
-        <v>528.0128150374513</v>
+        <v>4841833.526919571</v>
       </c>
       <c r="H52">
-        <v>1860.525316217491</v>
+        <v>3986343.848104034</v>
       </c>
       <c r="I52">
-        <v>690.8971111775378</v>
+        <v>1117719.865081871</v>
       </c>
       <c r="J52">
-        <v>-376.1258136668166</v>
+        <v>4840790.357278747</v>
       </c>
       <c r="K52">
-        <v>-1899.09487538438</v>
+        <v>3980998.296615848</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,31 +2268,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.73759715131301</v>
+        <v>1116398.7730264</v>
       </c>
       <c r="G53">
-        <v>542.3050255333301</v>
+        <v>4841850.039735072</v>
       </c>
       <c r="H53">
-        <v>1867.029774213313</v>
+        <v>3986350.735380007</v>
       </c>
       <c r="I53">
-        <v>741.8215916155676</v>
+        <v>1117819.802001822</v>
       </c>
       <c r="J53">
-        <v>-418.4281464027451</v>
+        <v>4840741.705693908</v>
       </c>
       <c r="K53">
-        <v>-2154.937029233065</v>
+        <v>3980544.660109538</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,31 +2303,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.31603834774189</v>
+        <v>1116398.358626386</v>
       </c>
       <c r="G54">
-        <v>556.5972360292089</v>
+        <v>4841866.552550574</v>
       </c>
       <c r="H54">
-        <v>1873.38825086548</v>
+        <v>3986357.468082949</v>
       </c>
       <c r="I54">
-        <v>794.0000405347218</v>
+        <v>1117922.199776487</v>
       </c>
       <c r="J54">
-        <v>-460.730479138674</v>
+        <v>4840693.054109069</v>
       </c>
       <c r="K54">
-        <v>-2419.322722546104</v>
+        <v>3980075.874960457</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2326,31 +2338,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>285.0804332913765</v>
+        <v>1116580.944514003</v>
       </c>
       <c r="G55">
-        <v>-116.7447978709356</v>
+        <v>4841130.12831175</v>
       </c>
       <c r="H55">
-        <v>267.4171482797711</v>
+        <v>3985227.628672962</v>
       </c>
       <c r="I55">
-        <v>-2298.823778747566</v>
+        <v>1114860.579686017</v>
       </c>
       <c r="J55">
-        <v>1347.397195740194</v>
+        <v>4843228.411200928</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984371.638433607</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2361,31 +2373,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>285.0804332913765</v>
+        <v>1116580.944514003</v>
       </c>
       <c r="G56">
-        <v>-116.7447978709356</v>
+        <v>4841130.12831175</v>
       </c>
       <c r="H56">
-        <v>267.4171482797711</v>
+        <v>3985227.628672962</v>
       </c>
       <c r="I56">
-        <v>-2253.438876191229</v>
+        <v>1114890.193661822</v>
       </c>
       <c r="J56">
-        <v>1314.620688961923</v>
+        <v>4843179.759561094</v>
       </c>
       <c r="K56">
-        <v>341.4079359959118</v>
+        <v>3984675.43452602</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2396,31 +2408,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>285.0804332913765</v>
+        <v>1116580.944514003</v>
       </c>
       <c r="G57">
-        <v>-116.7447978709356</v>
+        <v>4841130.12831175</v>
       </c>
       <c r="H57">
-        <v>267.4171482797711</v>
+        <v>3985227.628672962</v>
       </c>
       <c r="I57">
-        <v>-2206.936412162788</v>
+        <v>1114920.536854536</v>
       </c>
       <c r="J57">
-        <v>1281.844182183652</v>
+        <v>4843131.107921259</v>
       </c>
       <c r="K57">
-        <v>665.7917073452705</v>
+        <v>3984964.081952715</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2431,31 +2443,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>285.0804332913765</v>
+        <v>1116580.944514003</v>
       </c>
       <c r="G58">
-        <v>-116.7447978709356</v>
+        <v>4841130.12831175</v>
       </c>
       <c r="H58">
-        <v>267.4171482797711</v>
+        <v>3985227.628672962</v>
       </c>
       <c r="I58">
-        <v>-2159.288867739127</v>
+        <v>1114951.627220456</v>
       </c>
       <c r="J58">
-        <v>1249.067675405381</v>
+        <v>4843082.456281425</v>
       </c>
       <c r="K58">
-        <v>973.1513140480787</v>
+        <v>3985237.58071369</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2466,31 +2478,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>285.0804332913765</v>
+        <v>1116580.944514003</v>
       </c>
       <c r="G59">
-        <v>-116.7447978709356</v>
+        <v>4841130.12831175</v>
       </c>
       <c r="H59">
-        <v>267.4171482797711</v>
+        <v>3985227.628672962</v>
       </c>
       <c r="I59">
-        <v>-2110.468046368972</v>
+        <v>1114983.483158034</v>
       </c>
       <c r="J59">
-        <v>1216.29116862711</v>
+        <v>4843033.804641592</v>
       </c>
       <c r="K59">
-        <v>1263.486756104334</v>
+        <v>3985495.930808946</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2501,31 +2513,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>285.0804332913765</v>
+        <v>1116580.944514003</v>
       </c>
       <c r="G60">
-        <v>-116.7447978709356</v>
+        <v>4841130.12831175</v>
       </c>
       <c r="H60">
-        <v>267.4171482797711</v>
+        <v>3985227.628672962</v>
       </c>
       <c r="I60">
-        <v>-2060.445057186909</v>
+        <v>1115016.123518768</v>
       </c>
       <c r="J60">
-        <v>1183.514661848839</v>
+        <v>4842985.153001758</v>
       </c>
       <c r="K60">
-        <v>1536.79803351404</v>
+        <v>3985739.132238484</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2536,31 +2548,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>285.0804332913765</v>
+        <v>1116580.944514003</v>
       </c>
       <c r="G61">
-        <v>-116.7447978709356</v>
+        <v>4841130.12831175</v>
       </c>
       <c r="H61">
-        <v>267.4171482797711</v>
+        <v>3985227.628672962</v>
       </c>
       <c r="I61">
-        <v>-2009.190297916543</v>
+        <v>1115049.567618357</v>
       </c>
       <c r="J61">
-        <v>1150.738155070568</v>
+        <v>4842936.501361924</v>
       </c>
       <c r="K61">
-        <v>1793.085146277193</v>
+        <v>3985967.185002302</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2571,31 +2583,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>285.0804332913765</v>
+        <v>1116580.944514003</v>
       </c>
       <c r="G62">
-        <v>-116.7447978709356</v>
+        <v>4841130.12831175</v>
       </c>
       <c r="H62">
-        <v>267.4171482797711</v>
+        <v>3985227.628672962</v>
       </c>
       <c r="I62">
-        <v>-1956.673437352659</v>
+        <v>1115083.83524813</v>
       </c>
       <c r="J62">
-        <v>1117.961648292297</v>
+        <v>4842887.84972209</v>
       </c>
       <c r="K62">
-        <v>2032.348094393794</v>
+        <v>3986180.089100401</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2606,31 +2618,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>285.0804332913765</v>
+        <v>1116580.944514003</v>
       </c>
       <c r="G63">
-        <v>-97.46694559257816</v>
+        <v>4841146.641149944</v>
       </c>
       <c r="H63">
-        <v>267.4171482797711</v>
+        <v>3985227.628672962</v>
       </c>
       <c r="I63">
-        <v>-1902.863397412015</v>
+        <v>1115118.94668676</v>
       </c>
       <c r="J63">
-        <v>1085.185141514026</v>
+        <v>4842839.198082257</v>
       </c>
       <c r="K63">
-        <v>2254.586877863843</v>
+        <v>3986377.844532781</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2641,31 +2653,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>221.2556727078877</v>
+        <v>1116532.263843825</v>
       </c>
       <c r="G64">
-        <v>-78.18909331422071</v>
+        <v>4841163.153988135</v>
       </c>
       <c r="H64">
-        <v>329.4561272157611</v>
+        <v>3985426.883044754</v>
       </c>
       <c r="I64">
-        <v>-1847.728334742161</v>
+        <v>1115154.922712265</v>
       </c>
       <c r="J64">
-        <v>1052.408634735755</v>
+        <v>4842790.546442423</v>
       </c>
       <c r="K64">
-        <v>2459.801496687341</v>
+        <v>3986560.451299443</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2676,31 +2688,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>183.7618276607068</v>
+        <v>1116503.666392182</v>
       </c>
       <c r="G65">
-        <v>-58.91124103586327</v>
+        <v>4841179.666826328</v>
       </c>
       <c r="H65">
-        <v>366.409715863872</v>
+        <v>3985545.569138849</v>
       </c>
       <c r="I65">
-        <v>-1791.23562187739</v>
+        <v>1115191.784614301</v>
       </c>
       <c r="J65">
-        <v>1019.632127957484</v>
+        <v>4842741.894802589</v>
       </c>
       <c r="K65">
-        <v>2647.991950864287</v>
+        <v>3986727.909400385</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2711,31 +2723,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>160.092961979282</v>
+        <v>1116485.613582689</v>
       </c>
       <c r="G66">
-        <v>-39.63338875750582</v>
+        <v>4841196.179664521</v>
       </c>
       <c r="H66">
-        <v>392.8179480731015</v>
+        <v>3985630.386068612</v>
       </c>
       <c r="I66">
-        <v>-1733.351827930666</v>
+        <v>1115229.554206762</v>
       </c>
       <c r="J66">
-        <v>986.8556211792135</v>
+        <v>4842693.243162755</v>
       </c>
       <c r="K66">
-        <v>2819.158240394682</v>
+        <v>3986880.218835608</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2746,31 +2758,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>143.5863911306226</v>
+        <v>1116473.02362663</v>
       </c>
       <c r="G67">
-        <v>-20.35553647914837</v>
+        <v>4841212.692502713</v>
       </c>
       <c r="H67">
-        <v>413.3820243462077</v>
+        <v>3985696.432966377</v>
       </c>
       <c r="I67">
-        <v>-1674.042698810119</v>
+        <v>1115268.253840689</v>
       </c>
       <c r="J67">
-        <v>954.0791144009424</v>
+        <v>4842644.591522922</v>
       </c>
       <c r="K67">
-        <v>2973.300365278526</v>
+        <v>3987017.379605112</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2781,31 +2793,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>131.2719949621257</v>
+        <v>1116463.631142383</v>
       </c>
       <c r="G68">
-        <v>-1.077684200790932</v>
+        <v>4841229.205340905</v>
       </c>
       <c r="H68">
-        <v>430.225597909033</v>
+        <v>3985750.530498712</v>
       </c>
       <c r="I68">
-        <v>-1613.273136948376</v>
+        <v>1115307.906417499</v>
       </c>
       <c r="J68">
-        <v>921.3026076226716</v>
+        <v>4842595.939883088</v>
       </c>
       <c r="K68">
-        <v>3110.418325515816</v>
+        <v>3987139.391708897</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2816,31 +2828,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>121.6438568128038</v>
+        <v>1116456.287531324</v>
       </c>
       <c r="G69">
-        <v>18.20016807756652</v>
+        <v>4841245.718179097</v>
       </c>
       <c r="H69">
-        <v>444.490875195468</v>
+        <v>3985796.347159671</v>
       </c>
       <c r="I69">
-        <v>-1551.00718053276</v>
+        <v>1115348.535402534</v>
       </c>
       <c r="J69">
-        <v>888.5261008444006</v>
+        <v>4842547.288243254</v>
       </c>
       <c r="K69">
-        <v>3230.512121106556</v>
+        <v>3987246.255146964</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2851,31 +2863,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>113.8539920022763</v>
+        <v>1116450.346015271</v>
       </c>
       <c r="G70">
-        <v>37.47802035592397</v>
+        <v>4841262.23101729</v>
       </c>
       <c r="H70">
-        <v>456.863405147264</v>
+        <v>3985836.084768595</v>
       </c>
       <c r="I70">
-        <v>-1487.207982224038</v>
+        <v>1115390.164838947</v>
       </c>
       <c r="J70">
-        <v>855.7495940661298</v>
+        <v>4842498.63660342</v>
       </c>
       <c r="K70">
-        <v>3333.581752050744</v>
+        <v>3987337.96991931</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2886,31 +2898,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>107.3856285252096</v>
+        <v>1116445.412439867</v>
       </c>
       <c r="G71">
-        <v>56.75587263428141</v>
+        <v>4841278.743855483</v>
       </c>
       <c r="H71">
-        <v>467.7871247871017</v>
+        <v>3985871.169145091</v>
       </c>
       <c r="I71">
-        <v>-1421.837787351151</v>
+        <v>1115432.819361933</v>
       </c>
       <c r="J71">
-        <v>822.9730872878588</v>
+        <v>4842449.984963587</v>
       </c>
       <c r="K71">
-        <v>3419.627218348381</v>
+        <v>3987414.536025939</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2921,31 +2933,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>101.9041771622764</v>
+        <v>1116441.231605917</v>
       </c>
       <c r="G72">
-        <v>76.03372491263887</v>
+        <v>4841295.256693675</v>
       </c>
       <c r="H72">
-        <v>477.5660520326114</v>
+        <v>3985902.576722046</v>
       </c>
       <c r="I72">
-        <v>-1354.857911568995</v>
+        <v>1115476.524213307</v>
       </c>
       <c r="J72">
-        <v>790.1965805095878</v>
+        <v>4842401.333323753</v>
       </c>
       <c r="K72">
-        <v>3488.648519999465</v>
+        <v>3987475.953466848</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2956,31 +2968,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>97.18244158551224</v>
+        <v>1116437.630225352</v>
       </c>
       <c r="G73">
-        <v>95.31157719099632</v>
+        <v>4841311.769531867</v>
       </c>
       <c r="H73">
-        <v>486.4175343036512</v>
+        <v>3985931.00556742</v>
       </c>
       <c r="I73">
-        <v>-1286.228717966059</v>
+        <v>1115521.305256437</v>
       </c>
       <c r="J73">
-        <v>757.420073731317</v>
+        <v>4842352.681683918</v>
       </c>
       <c r="K73">
-        <v>3540.645657003998</v>
+        <v>3987522.222242037</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2991,31 +3003,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>93.06012244673053</v>
+        <v>1116434.486034031</v>
       </c>
       <c r="G74">
-        <v>114.5894294693537</v>
+        <v>4841328.282370061</v>
       </c>
       <c r="H74">
-        <v>494.5023526769775</v>
+        <v>3985956.972071602</v>
       </c>
       <c r="I74">
-        <v>-1215.909593608352</v>
+        <v>1115567.188991557</v>
       </c>
       <c r="J74">
-        <v>724.6435669530459</v>
+        <v>4842304.030044084</v>
       </c>
       <c r="K74">
-        <v>3575.618629361979</v>
+        <v>3987553.342351508</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3026,31 +3038,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>89.42050426656596</v>
+        <v>1116431.710010265</v>
       </c>
       <c r="G75">
-        <v>133.8672817477112</v>
+        <v>4841344.795208252</v>
       </c>
       <c r="H75">
-        <v>501.9427935558094</v>
+        <v>3985980.868989292</v>
       </c>
       <c r="I75">
-        <v>-1143.858925505743</v>
+        <v>1115614.202571442</v>
       </c>
       <c r="J75">
-        <v>691.8670601747751</v>
+        <v>4842255.37840425</v>
       </c>
       <c r="K75">
-        <v>3593.56743707341</v>
+        <v>3987569.313795261</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3061,31 +3073,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>86.1763417981724</v>
+        <v>1116429.235610022</v>
       </c>
       <c r="G76">
-        <v>153.1451340260687</v>
+        <v>4841361.308046445</v>
       </c>
       <c r="H76">
-        <v>508.834034242475</v>
+        <v>3986003.002007233</v>
       </c>
       <c r="I76">
-        <v>-1070.034075986508</v>
+        <v>1115662.37381748</v>
       </c>
       <c r="J76">
-        <v>659.0905533965041</v>
+        <v>4842206.726764417</v>
       </c>
       <c r="K76">
-        <v>3594.492080138287</v>
+        <v>3987570.136573293</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3096,31 +3108,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>83.26094947298856</v>
+        <v>1116427.011970623</v>
       </c>
       <c r="G77">
-        <v>172.4229863044261</v>
+        <v>4841377.820884638</v>
       </c>
       <c r="H77">
-        <v>515.2516074120531</v>
+        <v>3986023.613718327</v>
       </c>
       <c r="I77">
-        <v>-994.3913574654773</v>
+        <v>1115711.731236135</v>
       </c>
       <c r="J77">
-        <v>626.3140466182332</v>
+        <v>4842158.075124582</v>
       </c>
       <c r="K77">
-        <v>3578.392558556614</v>
+        <v>3987555.810685607</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3131,31 +3143,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>80.62237238106238</v>
+        <v>1116424.999464819</v>
       </c>
       <c r="G78">
-        <v>191.7008385827835</v>
+        <v>4841394.33372283</v>
       </c>
       <c r="H78">
-        <v>521.25646105488</v>
+        <v>3986042.899872948</v>
       </c>
       <c r="I78">
-        <v>-916.8860065908908</v>
+        <v>1115762.304035817</v>
       </c>
       <c r="J78">
-        <v>593.5375398399623</v>
+        <v>4842109.423484749</v>
       </c>
       <c r="K78">
-        <v>3545.268872328389</v>
+        <v>3987526.336132202</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3166,31 +3178,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>78.21945525981107</v>
+        <v>1116423.166702505</v>
       </c>
       <c r="G79">
-        <v>210.978690861141</v>
+        <v>4841410.846561022</v>
       </c>
       <c r="H79">
-        <v>526.8984873788127</v>
+        <v>3986061.020712944</v>
       </c>
       <c r="I79">
-        <v>-837.4721577546334</v>
+        <v>1115814.122144164</v>
       </c>
       <c r="J79">
-        <v>560.7610330616914</v>
+        <v>4842060.771844915</v>
       </c>
       <c r="K79">
-        <v>3495.121021453612</v>
+        <v>3987481.712913077</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3201,31 +3213,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>76.01912064681574</v>
+        <v>1116421.488454713</v>
       </c>
       <c r="G80">
-        <v>230.2565431394984</v>
+        <v>4841427.359399214</v>
       </c>
       <c r="H80">
-        <v>532.2190450054979</v>
+        <v>3986078.109072322</v>
       </c>
       <c r="I80">
-        <v>-756.1028159501847</v>
+        <v>1115867.216225758</v>
       </c>
       <c r="J80">
-        <v>527.9845262834203</v>
+        <v>4842012.120205081</v>
       </c>
       <c r="K80">
-        <v>3427.949005932283</v>
+        <v>3987421.941028234</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3236,31 +3248,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>73.99444029934682</v>
+        <v>1116419.944182626</v>
       </c>
       <c r="G81">
-        <v>249.5343954178559</v>
+        <v>4841443.872237407</v>
       </c>
       <c r="H81">
-        <v>537.252800562947</v>
+        <v>3986094.276292004</v>
       </c>
       <c r="I81">
-        <v>-672.7298289622235</v>
+        <v>1115921.617700265</v>
       </c>
       <c r="J81">
-        <v>495.2080195051495</v>
+        <v>4841963.468565247</v>
       </c>
       <c r="K81">
-        <v>3343.752825764403</v>
+        <v>3987347.020477672</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3271,31 +3283,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>72.12324061271318</v>
+        <v>1116418.516973907</v>
       </c>
       <c r="G82">
-        <v>268.8122476962134</v>
+        <v>4841460.3850756</v>
       </c>
       <c r="H82">
-        <v>542.0290988241026</v>
+        <v>3986109.616620389</v>
       </c>
       <c r="I82">
-        <v>-587.3038588714243</v>
+        <v>1115977.358761034</v>
       </c>
       <c r="J82">
-        <v>462.4315127268785</v>
+        <v>4841914.816925414</v>
       </c>
       <c r="K82">
-        <v>3242.532480949971</v>
+        <v>3987256.951261391</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3306,31 +3318,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>70.38707579305459</v>
+        <v>1116417.192759508</v>
       </c>
       <c r="G83">
-        <v>288.0900999745708</v>
+        <v>4841476.897913791</v>
       </c>
       <c r="H83">
-        <v>546.572999196717</v>
+        <v>3986124.210542303</v>
       </c>
       <c r="I83">
-        <v>-499.7743528575909</v>
+        <v>1116034.472394143</v>
       </c>
       <c r="J83">
-        <v>429.6550059486075</v>
+        <v>4841866.16528558</v>
       </c>
       <c r="K83">
-        <v>3124.287971488987</v>
+        <v>3987151.733379391</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3341,31 +3353,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>68.7704594897362</v>
+        <v>1116415.95972762</v>
       </c>
       <c r="G84">
-        <v>307.3679522529283</v>
+        <v>4841493.410751984</v>
       </c>
       <c r="H84">
-        <v>550.9060715512076</v>
+        <v>3986138.127335015</v>
       </c>
       <c r="I84">
-        <v>-410.0895132838361</v>
+        <v>1116092.992397924</v>
       </c>
       <c r="J84">
-        <v>396.8784991703367</v>
+        <v>4841817.513645746</v>
       </c>
       <c r="K84">
-        <v>2989.019297381453</v>
+        <v>3987031.366831671</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3376,31 +3388,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>67.26028141105652</v>
+        <v>1116414.807878709</v>
       </c>
       <c r="G85">
-        <v>326.6458045312857</v>
+        <v>4841509.923590177</v>
       </c>
       <c r="H85">
-        <v>555.0470154762627</v>
+        <v>3986151.427057134</v>
       </c>
       <c r="I85">
-        <v>-318.1962670441172</v>
+        <v>1116152.95340296</v>
       </c>
       <c r="J85">
-        <v>364.1019923920657</v>
+        <v>4841768.862005912</v>
       </c>
       <c r="K85">
-        <v>2836.726458627365</v>
+        <v>3986895.851618233</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3411,31 +3423,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>65.84535852606039</v>
+        <v>1116413.728683211</v>
       </c>
       <c r="G86">
-        <v>345.9236568096431</v>
+        <v>4841526.436428369</v>
       </c>
       <c r="H86">
-        <v>559.0121479832619</v>
+        <v>3986164.162115001</v>
       </c>
       <c r="I86">
-        <v>-224.040234155981</v>
+        <v>1116214.390892583</v>
       </c>
       <c r="J86">
-        <v>331.3254856137948</v>
+        <v>4841720.210366079</v>
       </c>
       <c r="K86">
-        <v>2667.409455226727</v>
+        <v>3986745.187739075</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3446,31 +3458,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>64.51608565290958</v>
+        <v>1116412.714815024</v>
       </c>
       <c r="G87">
-        <v>365.2015090880006</v>
+        <v>4841542.949266561</v>
       </c>
       <c r="H87">
-        <v>562.8157918323997</v>
+        <v>3986176.378509898</v>
       </c>
       <c r="I87">
-        <v>-127.5656955799362</v>
+        <v>1116277.341223866</v>
       </c>
       <c r="J87">
-        <v>298.5489788355238</v>
+        <v>4841671.558726245</v>
       </c>
       <c r="K87">
-        <v>2481.068287179537</v>
+        <v>3986579.375194199</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3481,31 +3493,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>63.26416044104744</v>
+        <v>1116411.759941746</v>
       </c>
       <c r="G88">
-        <v>384.479361366358</v>
+        <v>4841559.462104754</v>
       </c>
       <c r="H88">
-        <v>566.4705878320275</v>
+        <v>3986188.11684108</v>
       </c>
       <c r="I88">
-        <v>-28.71556024640486</v>
+        <v>1116341.841649143</v>
       </c>
       <c r="J88">
-        <v>265.7724720572529</v>
+        <v>4841622.907086411</v>
       </c>
       <c r="K88">
-        <v>2277.702954485795</v>
+        <v>3986398.413983603</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3516,31 +3528,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>62.08236473314993</v>
+        <v>1116410.858557917</v>
       </c>
       <c r="G89">
-        <v>403.7572136447155</v>
+        <v>4841575.974942946</v>
       </c>
       <c r="H89">
-        <v>569.9877483017015</v>
+        <v>3986199.413119837</v>
       </c>
       <c r="I89">
-        <v>72.56866872925804</v>
+        <v>1116407.930338054</v>
       </c>
       <c r="J89">
-        <v>232.995965278982</v>
+        <v>4841574.255446577</v>
       </c>
       <c r="K89">
-        <v>2057.313457145502</v>
+        <v>3986202.304107289</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3551,31 +3563,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>60.96438914325006</v>
+        <v>1116410.005851218</v>
       </c>
       <c r="G90">
-        <v>423.0350659230729</v>
+        <v>4841592.487781139</v>
       </c>
       <c r="H90">
-        <v>573.3772645188512</v>
+        <v>3986210.299435765</v>
       </c>
       <c r="I90">
-        <v>176.3469286636644</v>
+        <v>1116475.646400129</v>
       </c>
       <c r="J90">
-        <v>200.219458500711</v>
+        <v>4841525.603806742</v>
       </c>
       <c r="K90">
-        <v>1819.899795158657</v>
+        <v>3985991.045565255</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3586,31 +3598,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>59.9046911094932</v>
+        <v>1116409.197594203</v>
       </c>
       <c r="G91">
-        <v>442.3129182014304</v>
+        <v>4841609.00061933</v>
       </c>
       <c r="H91">
-        <v>576.6480778239603</v>
+        <v>3986220.804506311</v>
       </c>
       <c r="I91">
-        <v>282.680632774708</v>
+        <v>1116545.029907934</v>
       </c>
       <c r="J91">
-        <v>167.4429517224402</v>
+        <v>4841476.952166909</v>
       </c>
       <c r="K91">
-        <v>1565.461968525261</v>
+        <v>3985764.638357503</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3621,31 +3633,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>58.89837912794356</v>
+        <v>1116408.430056005</v>
       </c>
       <c r="G92">
-        <v>461.5907704797879</v>
+        <v>4841625.513457524</v>
       </c>
       <c r="H92">
-        <v>579.8082217661145</v>
+        <v>3986230.954133316</v>
       </c>
       <c r="I92">
-        <v>391.6327065242709</v>
+        <v>1116616.121920788</v>
       </c>
       <c r="J92">
-        <v>134.6664449441692</v>
+        <v>4841428.300527074</v>
       </c>
       <c r="K92">
-        <v>1293.999977245312</v>
+        <v>3985523.082484031</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3656,31 +3668,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>57.94111764746718</v>
+        <v>1116407.699929798</v>
       </c>
       <c r="G93">
-        <v>480.8686227581452</v>
+        <v>4841642.026295717</v>
       </c>
       <c r="H93">
-        <v>582.864940978566</v>
+        <v>3986240.77158481</v>
       </c>
       <c r="I93">
-        <v>503.2676248558479</v>
+        <v>1116688.964509055</v>
       </c>
       <c r="J93">
-        <v>101.8899381658982</v>
+        <v>4841379.648887241</v>
       </c>
       <c r="K93">
-        <v>1005.513821318812</v>
+        <v>3985266.377944841</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3691,31 +3703,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>57.02904840601288</v>
+        <v>1116407.004272791</v>
       </c>
       <c r="G94">
-        <v>500.1464750365027</v>
+        <v>4841658.539133908</v>
       </c>
       <c r="H94">
-        <v>585.8247912110637</v>
+        <v>3986250.277916293</v>
       </c>
       <c r="I94">
-        <v>617.6514503490965</v>
+        <v>1116763.600779044</v>
       </c>
       <c r="J94">
-        <v>69.11343138762733</v>
+        <v>4841330.997247407</v>
       </c>
       <c r="K94">
-        <v>700.0035007457604</v>
+        <v>3984994.524739931</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3726,31 +3738,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>56.15872495244137</v>
+        <v>1116406.340456294</v>
       </c>
       <c r="G95">
-        <v>519.4243273148601</v>
+        <v>4841675.051972101</v>
       </c>
       <c r="H95">
-        <v>588.6937239933422</v>
+        <v>3986259.492242658</v>
       </c>
       <c r="I95">
-        <v>734.851872313929</v>
+        <v>1116840.074898517</v>
       </c>
       <c r="J95">
-        <v>36.33692460935634</v>
+        <v>4841282.345607574</v>
       </c>
       <c r="K95">
-        <v>377.4690155261566</v>
+        <v>3984707.522869302</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3761,31 +3773,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>55.32705781980533</v>
+        <v>1116405.706123897</v>
       </c>
       <c r="G96">
-        <v>538.7021795932177</v>
+        <v>4841691.564810294</v>
       </c>
       <c r="H96">
-        <v>591.4771586790033</v>
+        <v>3986268.431969572</v>
       </c>
       <c r="I96">
-        <v>854.9382468472334</v>
+        <v>1116918.432122828</v>
       </c>
       <c r="J96">
-        <v>3.560417831085342</v>
+        <v>4841233.693967739</v>
       </c>
       <c r="K96">
-        <v>37.91036566000138</v>
+        <v>3984405.372332955</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3796,31 +3808,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>54.53126836166299</v>
+        <v>1116405.099156259</v>
       </c>
       <c r="G97">
-        <v>557.9800318715751</v>
+        <v>4841708.077648486</v>
       </c>
       <c r="H97">
-        <v>594.1800440618322</v>
+        <v>3986277.112991378</v>
       </c>
       <c r="I97">
-        <v>977.9816378759805</v>
+        <v>1116998.718821699</v>
       </c>
       <c r="J97">
-        <v>-29.2160889471855</v>
+        <v>4841185.042327906</v>
       </c>
       <c r="K97">
-        <v>-318.6724488527045</v>
+        <v>3984088.073130888</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3831,31 +3843,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>53.76884967926036</v>
+        <v>1116404.51764131</v>
       </c>
       <c r="G98">
-        <v>577.2578841499325</v>
+        <v>4841724.590486678</v>
       </c>
       <c r="H98">
-        <v>596.806911324845</v>
+        <v>3986285.549861154</v>
       </c>
       <c r="I98">
-        <v>1104.054859210967</v>
+        <v>1117080.982506668</v>
       </c>
       <c r="J98">
-        <v>-61.99259572545649</v>
+        <v>4841136.390688072</v>
       </c>
       <c r="K98">
-        <v>-692.2794280119631</v>
+        <v>3983755.625263102</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3866,31 +3878,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>53.03753338761349</v>
+        <v>1116403.959848897</v>
       </c>
       <c r="G99">
-        <v>596.53573642829</v>
+        <v>4841741.103324871</v>
       </c>
       <c r="H99">
-        <v>599.3619197451402</v>
+        <v>3986293.755937502</v>
       </c>
       <c r="I99">
-        <v>1233.232517636092</v>
+        <v>1117165.271859199</v>
       </c>
       <c r="J99">
-        <v>-94.76910250372748</v>
+        <v>4841087.739048238</v>
       </c>
       <c r="K99">
-        <v>-1082.910571817774</v>
+        <v>3983408.028729598</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3901,31 +3913,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>52.33526121678594</v>
+        <v>1116403.42420913</v>
       </c>
       <c r="G100">
-        <v>615.8135887066475</v>
+        <v>4841757.616163063</v>
       </c>
       <c r="H100">
-        <v>601.8488963122796</v>
+        <v>3986301.743511799</v>
       </c>
       <c r="I100">
-        <v>1365.591057058668</v>
+        <v>1117251.63675949</v>
       </c>
       <c r="J100">
-        <v>-127.5456092819985</v>
+        <v>4841039.087408404</v>
       </c>
       <c r="K100">
-        <v>-1490.565880270136</v>
+        <v>3983045.283530374</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3936,31 +3948,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>51.66016063856691</v>
+        <v>1116402.909293785</v>
       </c>
       <c r="G101">
-        <v>635.0914409850049</v>
+        <v>4841774.129001256</v>
       </c>
       <c r="H101">
-        <v>604.2713702076546</v>
+        <v>3986309.523918931</v>
       </c>
       <c r="I101">
-        <v>1501.208803746901</v>
+        <v>1117340.128315997</v>
       </c>
       <c r="J101">
-        <v>-160.3221160602692</v>
+        <v>4840990.435768571</v>
       </c>
       <c r="K101">
-        <v>-1915.245353369047</v>
+        <v>3982667.389665431</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3971,31 +3983,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>51.01052386128769</v>
+        <v>1116402.41380029</v>
       </c>
       <c r="G102">
-        <v>654.3692932633624</v>
+        <v>4841790.641839447</v>
       </c>
       <c r="H102">
-        <v>606.6326029245673</v>
+        <v>3986317.107634036</v>
       </c>
       <c r="I102">
-        <v>1640.166012681295</v>
+        <v>1117430.798895672</v>
       </c>
       <c r="J102">
-        <v>-193.0986228385402</v>
+        <v>4840941.784128737</v>
       </c>
       <c r="K102">
-        <v>-2356.948991114512</v>
+        <v>3982274.347134769</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4006,31 +4018,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>50.38478965628408</v>
+        <v>1116401.936537858</v>
       </c>
       <c r="G103">
-        <v>673.6471455417197</v>
+        <v>4841807.154677641</v>
       </c>
       <c r="H103">
-        <v>608.9356146741291</v>
+        <v>3986324.50435731</v>
       </c>
       <c r="I103">
-        <v>1782.544915047408</v>
+        <v>1117523.702154956</v>
       </c>
       <c r="J103">
-        <v>-225.8751296168112</v>
+        <v>4840893.132488903</v>
       </c>
       <c r="K103">
-        <v>-2815.67679350653</v>
+        <v>3981866.155938388</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4041,31 +4053,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>49.78152757573994</v>
+        <v>1116401.476415453</v>
       </c>
       <c r="G104">
-        <v>692.9249978200771</v>
+        <v>4841823.667515833</v>
       </c>
       <c r="H104">
-        <v>611.1832076133818</v>
+        <v>3986331.723088611</v>
       </c>
       <c r="I104">
-        <v>1928.429766898099</v>
+        <v>1117618.893071531</v>
       </c>
       <c r="J104">
-        <v>-258.6516363950822</v>
+        <v>4840844.480849069</v>
       </c>
       <c r="K104">
-        <v>-3291.428760545099</v>
+        <v>3981442.816076288</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4076,31 +4088,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>49.19942419877562</v>
+        <v>1116401.032431296</v>
       </c>
       <c r="G105">
-        <v>712.2028500984347</v>
+        <v>4841840.180354025</v>
       </c>
       <c r="H105">
-        <v>613.3779863437854</v>
+        <v>3986338.772193298</v>
       </c>
       <c r="I105">
-        <v>2077.906899014012</v>
+        <v>1117716.427976852</v>
       </c>
       <c r="J105">
-        <v>-291.4281431733531</v>
+        <v>4840795.829209235</v>
       </c>
       <c r="K105">
-        <v>-3784.204892230219</v>
+        <v>3981004.327548469</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4111,31 +4123,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>48.63727110480536</v>
+        <v>1116400.603663697</v>
       </c>
       <c r="G106">
-        <v>731.4807023767921</v>
+        <v>4841856.693192217</v>
       </c>
       <c r="H106">
-        <v>615.5223760561738</v>
+        <v>3986345.659460502</v>
       </c>
       <c r="I106">
-        <v>2231.064767991836</v>
+        <v>1117816.364589486</v>
       </c>
       <c r="J106">
-        <v>-324.2046499516238</v>
+        <v>4840747.177569401</v>
       </c>
       <c r="K106">
-        <v>-4294.005188561887</v>
+        <v>3980550.690354932</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4146,31 +4158,3741 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>48.09395432356742</v>
+        <v>1116400.189263004</v>
       </c>
       <c r="G107">
-        <v>750.7585546551495</v>
+        <v>4841873.206030411</v>
       </c>
       <c r="H107">
-        <v>617.6186386391788</v>
+        <v>3986352.39215487</v>
       </c>
       <c r="I107">
-        <v>2387.994008590586</v>
+        <v>1117918.762049267</v>
       </c>
       <c r="J107">
-        <v>-356.9811567298948</v>
+        <v>4840698.525929566</v>
       </c>
       <c r="K107">
-        <v>-4820.829649540111</v>
+        <v>3980081.904495675</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>91</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116577.909623713</v>
+      </c>
+      <c r="G108">
+        <v>4841129.143580822</v>
+      </c>
+      <c r="H108">
+        <v>3985221.5980549</v>
+      </c>
+      <c r="I108">
+        <v>1114861.94072891</v>
+      </c>
+      <c r="J108">
+        <v>4843226.054897871</v>
+      </c>
+      <c r="K108">
+        <v>3984363.89691043</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>91</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116577.909623713</v>
+      </c>
+      <c r="G109">
+        <v>4841129.143580822</v>
+      </c>
+      <c r="H109">
+        <v>3985221.5980549</v>
+      </c>
+      <c r="I109">
+        <v>1114891.554740868</v>
+      </c>
+      <c r="J109">
+        <v>4843177.403281706</v>
+      </c>
+      <c r="K109">
+        <v>3984667.692412576</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>91</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116577.909623713</v>
+      </c>
+      <c r="G110">
+        <v>4841129.143580822</v>
+      </c>
+      <c r="H110">
+        <v>3985221.5980549</v>
+      </c>
+      <c r="I110">
+        <v>1114921.897970626</v>
+      </c>
+      <c r="J110">
+        <v>4843128.751665542</v>
+      </c>
+      <c r="K110">
+        <v>3984956.339278437</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>91</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116577.909623713</v>
+      </c>
+      <c r="G111">
+        <v>4841129.143580822</v>
+      </c>
+      <c r="H111">
+        <v>3985221.5980549</v>
+      </c>
+      <c r="I111">
+        <v>1114952.988374502</v>
+      </c>
+      <c r="J111">
+        <v>4843080.100049378</v>
+      </c>
+      <c r="K111">
+        <v>3985229.837508012</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>91</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116577.909623713</v>
+      </c>
+      <c r="G112">
+        <v>4841129.143580822</v>
+      </c>
+      <c r="H112">
+        <v>3985221.5980549</v>
+      </c>
+      <c r="I112">
+        <v>1114984.844350971</v>
+      </c>
+      <c r="J112">
+        <v>4843031.448433214</v>
+      </c>
+      <c r="K112">
+        <v>3985488.187101301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>91</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116577.909623713</v>
+      </c>
+      <c r="G113">
+        <v>4841129.143580822</v>
+      </c>
+      <c r="H113">
+        <v>3985221.5980549</v>
+      </c>
+      <c r="I113">
+        <v>1115017.484751553</v>
+      </c>
+      <c r="J113">
+        <v>4842982.79681705</v>
+      </c>
+      <c r="K113">
+        <v>3985731.388058305</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>91</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116577.909623713</v>
+      </c>
+      <c r="G114">
+        <v>4841129.143580822</v>
+      </c>
+      <c r="H114">
+        <v>3985221.5980549</v>
+      </c>
+      <c r="I114">
+        <v>1115050.92889197</v>
+      </c>
+      <c r="J114">
+        <v>4842934.145200886</v>
+      </c>
+      <c r="K114">
+        <v>3985959.440379023</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>91</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116577.909623713</v>
+      </c>
+      <c r="G115">
+        <v>4841129.143580822</v>
+      </c>
+      <c r="H115">
+        <v>3985221.5980549</v>
+      </c>
+      <c r="I115">
+        <v>1115085.196563578</v>
+      </c>
+      <c r="J115">
+        <v>4842885.493584721</v>
+      </c>
+      <c r="K115">
+        <v>3986172.344063456</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>91</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116577.909623713</v>
+      </c>
+      <c r="G116">
+        <v>4841145.656415656</v>
+      </c>
+      <c r="H116">
+        <v>3985221.5980549</v>
+      </c>
+      <c r="I116">
+        <v>1115120.308045073</v>
+      </c>
+      <c r="J116">
+        <v>4842836.841968558</v>
+      </c>
+      <c r="K116">
+        <v>3986370.099111602</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>91</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116529.22908585</v>
+      </c>
+      <c r="G117">
+        <v>4841162.169250489</v>
+      </c>
+      <c r="H117">
+        <v>3985420.852125172</v>
+      </c>
+      <c r="I117">
+        <v>1115156.284114498</v>
+      </c>
+      <c r="J117">
+        <v>4842788.190352394</v>
+      </c>
+      <c r="K117">
+        <v>3986552.705523464</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>91</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116500.631711935</v>
+      </c>
+      <c r="G118">
+        <v>4841178.682085323</v>
+      </c>
+      <c r="H118">
+        <v>3985539.538039665</v>
+      </c>
+      <c r="I118">
+        <v>1115193.146061535</v>
+      </c>
+      <c r="J118">
+        <v>4842739.538736229</v>
+      </c>
+      <c r="K118">
+        <v>3986720.163299039</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>91</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116482.57895151</v>
+      </c>
+      <c r="G119">
+        <v>4841195.194920157</v>
+      </c>
+      <c r="H119">
+        <v>3985624.35484108</v>
+      </c>
+      <c r="I119">
+        <v>1115230.915700106</v>
+      </c>
+      <c r="J119">
+        <v>4842690.887120065</v>
+      </c>
+      <c r="K119">
+        <v>3986872.472438329</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>91</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116469.989029671</v>
+      </c>
+      <c r="G120">
+        <v>4841211.70775499</v>
+      </c>
+      <c r="H120">
+        <v>3985690.4016389</v>
+      </c>
+      <c r="I120">
+        <v>1115269.615381279</v>
+      </c>
+      <c r="J120">
+        <v>4842642.235503902</v>
+      </c>
+      <c r="K120">
+        <v>3987009.632941334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>91</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116460.596570953</v>
+      </c>
+      <c r="G121">
+        <v>4841228.220589824</v>
+      </c>
+      <c r="H121">
+        <v>3985744.499089372</v>
+      </c>
+      <c r="I121">
+        <v>1115309.268006498</v>
+      </c>
+      <c r="J121">
+        <v>4842593.583887737</v>
+      </c>
+      <c r="K121">
+        <v>3987131.644808054</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>91</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116453.252979854</v>
+      </c>
+      <c r="G122">
+        <v>4841244.733424657</v>
+      </c>
+      <c r="H122">
+        <v>3985790.315680999</v>
+      </c>
+      <c r="I122">
+        <v>1115349.897041133</v>
+      </c>
+      <c r="J122">
+        <v>4842544.932271573</v>
+      </c>
+      <c r="K122">
+        <v>3987238.508038487</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>91</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116447.31147995</v>
+      </c>
+      <c r="G123">
+        <v>4841261.246259491</v>
+      </c>
+      <c r="H123">
+        <v>3985830.053229791</v>
+      </c>
+      <c r="I123">
+        <v>1115391.526528368</v>
+      </c>
+      <c r="J123">
+        <v>4842496.280655409</v>
+      </c>
+      <c r="K123">
+        <v>3987330.222632634</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>91</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116442.377917955</v>
+      </c>
+      <c r="G124">
+        <v>4841277.759094325</v>
+      </c>
+      <c r="H124">
+        <v>3985865.137553196</v>
+      </c>
+      <c r="I124">
+        <v>1115434.181103428</v>
+      </c>
+      <c r="J124">
+        <v>4842447.629039245</v>
+      </c>
+      <c r="K124">
+        <v>3987406.788590496</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>91</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116438.197095369</v>
+      </c>
+      <c r="G125">
+        <v>4841294.271929157</v>
+      </c>
+      <c r="H125">
+        <v>3985896.545082623</v>
+      </c>
+      <c r="I125">
+        <v>1115477.886008157</v>
+      </c>
+      <c r="J125">
+        <v>4842398.977423081</v>
+      </c>
+      <c r="K125">
+        <v>3987468.205912073</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>91</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116434.595724593</v>
+      </c>
+      <c r="G126">
+        <v>4841310.784763991</v>
+      </c>
+      <c r="H126">
+        <v>3985924.973884977</v>
+      </c>
+      <c r="I126">
+        <v>1115522.667105957</v>
+      </c>
+      <c r="J126">
+        <v>4842350.325806917</v>
+      </c>
+      <c r="K126">
+        <v>3987514.474597364</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>91</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116431.451541817</v>
+      </c>
+      <c r="G127">
+        <v>4841327.297598825</v>
+      </c>
+      <c r="H127">
+        <v>3985950.940349867</v>
+      </c>
+      <c r="I127">
+        <v>1115568.550897093</v>
+      </c>
+      <c r="J127">
+        <v>4842301.674190752</v>
+      </c>
+      <c r="K127">
+        <v>3987545.59464637</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>91</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116428.675525597</v>
+      </c>
+      <c r="G128">
+        <v>4841343.810433658</v>
+      </c>
+      <c r="H128">
+        <v>3985974.837231394</v>
+      </c>
+      <c r="I128">
+        <v>1115615.564534373</v>
+      </c>
+      <c r="J128">
+        <v>4842253.022574589</v>
+      </c>
+      <c r="K128">
+        <v>3987561.56605909</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>91</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116426.201132079</v>
+      </c>
+      <c r="G129">
+        <v>4841360.323268492</v>
+      </c>
+      <c r="H129">
+        <v>3985996.970215843</v>
+      </c>
+      <c r="I129">
+        <v>1115663.735839219</v>
+      </c>
+      <c r="J129">
+        <v>4842204.370958425</v>
+      </c>
+      <c r="K129">
+        <v>3987562.388835524</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>91</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116423.977498725</v>
+      </c>
+      <c r="G130">
+        <v>4841376.836103326</v>
+      </c>
+      <c r="H130">
+        <v>3986017.581895746</v>
+      </c>
+      <c r="I130">
+        <v>1115713.093318131</v>
+      </c>
+      <c r="J130">
+        <v>4842155.71934226</v>
+      </c>
+      <c r="K130">
+        <v>3987548.062975672</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>91</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116421.96499839</v>
+      </c>
+      <c r="G131">
+        <v>4841393.348938159</v>
+      </c>
+      <c r="H131">
+        <v>3986036.868021182</v>
+      </c>
+      <c r="I131">
+        <v>1115763.666179552</v>
+      </c>
+      <c r="J131">
+        <v>4842107.067726096</v>
+      </c>
+      <c r="K131">
+        <v>3987518.588479535</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>91</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116420.132241058</v>
+      </c>
+      <c r="G132">
+        <v>4841409.861772993</v>
+      </c>
+      <c r="H132">
+        <v>3986054.988833757</v>
+      </c>
+      <c r="I132">
+        <v>1115815.48435116</v>
+      </c>
+      <c r="J132">
+        <v>4842058.416109933</v>
+      </c>
+      <c r="K132">
+        <v>3987473.965347113</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>91</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116418.453997827</v>
+      </c>
+      <c r="G133">
+        <v>4841426.374607826</v>
+      </c>
+      <c r="H133">
+        <v>3986072.077167275</v>
+      </c>
+      <c r="I133">
+        <v>1115868.578497572</v>
+      </c>
+      <c r="J133">
+        <v>4842009.764493767</v>
+      </c>
+      <c r="K133">
+        <v>3987414.193578404</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>91</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116416.909729938</v>
+      </c>
+      <c r="G134">
+        <v>4841442.88744266</v>
+      </c>
+      <c r="H134">
+        <v>3986088.244362494</v>
+      </c>
+      <c r="I134">
+        <v>1115922.980038494</v>
+      </c>
+      <c r="J134">
+        <v>4841961.112877604</v>
+      </c>
+      <c r="K134">
+        <v>3987339.273173411</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>91</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116415.482525098</v>
+      </c>
+      <c r="G135">
+        <v>4841459.400277494</v>
+      </c>
+      <c r="H135">
+        <v>3986103.584667664</v>
+      </c>
+      <c r="I135">
+        <v>1115978.721167312</v>
+      </c>
+      <c r="J135">
+        <v>4841912.46126144</v>
+      </c>
+      <c r="K135">
+        <v>3987249.204132132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>91</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116414.158314299</v>
+      </c>
+      <c r="G136">
+        <v>4841475.913112327</v>
+      </c>
+      <c r="H136">
+        <v>3986118.178567494</v>
+      </c>
+      <c r="I136">
+        <v>1116035.834870147</v>
+      </c>
+      <c r="J136">
+        <v>4841863.809645276</v>
+      </c>
+      <c r="K136">
+        <v>3987143.986454567</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>91</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116412.925285762</v>
+      </c>
+      <c r="G137">
+        <v>4841492.42594716</v>
+      </c>
+      <c r="H137">
+        <v>3986132.095339147</v>
+      </c>
+      <c r="I137">
+        <v>1116094.35494537</v>
+      </c>
+      <c r="J137">
+        <v>4841815.158029111</v>
+      </c>
+      <c r="K137">
+        <v>3987023.620140716</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>91</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116411.773439982</v>
+      </c>
+      <c r="G138">
+        <v>4841508.938781994</v>
+      </c>
+      <c r="H138">
+        <v>3986145.395041141</v>
+      </c>
+      <c r="I138">
+        <v>1116154.316023608</v>
+      </c>
+      <c r="J138">
+        <v>4841766.506412948</v>
+      </c>
+      <c r="K138">
+        <v>3986888.10519058</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>91</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116410.694247417</v>
+      </c>
+      <c r="G139">
+        <v>4841525.451616827</v>
+      </c>
+      <c r="H139">
+        <v>3986158.130079736</v>
+      </c>
+      <c r="I139">
+        <v>1116215.753588235</v>
+      </c>
+      <c r="J139">
+        <v>4841717.854796784</v>
+      </c>
+      <c r="K139">
+        <v>3986737.441604158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>91</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116409.680381985</v>
+      </c>
+      <c r="G140">
+        <v>4841541.964451661</v>
+      </c>
+      <c r="H140">
+        <v>3986170.346456147</v>
+      </c>
+      <c r="I140">
+        <v>1116278.703996369</v>
+      </c>
+      <c r="J140">
+        <v>4841669.20318062</v>
+      </c>
+      <c r="K140">
+        <v>3986571.629381451</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>91</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116408.725511303</v>
+      </c>
+      <c r="G141">
+        <v>4841558.477286494</v>
+      </c>
+      <c r="H141">
+        <v>3986182.084769566</v>
+      </c>
+      <c r="I141">
+        <v>1116343.20450039</v>
+      </c>
+      <c r="J141">
+        <v>4841620.551564455</v>
+      </c>
+      <c r="K141">
+        <v>3986390.668522458</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>91</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116407.824129924</v>
+      </c>
+      <c r="G142">
+        <v>4841574.990121328</v>
+      </c>
+      <c r="H142">
+        <v>3986193.381031229</v>
+      </c>
+      <c r="I142">
+        <v>1116409.293269983</v>
+      </c>
+      <c r="J142">
+        <v>4841571.899948291</v>
+      </c>
+      <c r="K142">
+        <v>3986194.55902718</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>91</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116406.971425542</v>
+      </c>
+      <c r="G143">
+        <v>4841591.502956162</v>
+      </c>
+      <c r="H143">
+        <v>3986204.267330683</v>
+      </c>
+      <c r="I143">
+        <v>1116477.009414726</v>
+      </c>
+      <c r="J143">
+        <v>4841523.248332127</v>
+      </c>
+      <c r="K143">
+        <v>3985983.300895616</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>91</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116406.163170724</v>
+      </c>
+      <c r="G144">
+        <v>4841608.015790995</v>
+      </c>
+      <c r="H144">
+        <v>3986214.772385333</v>
+      </c>
+      <c r="I144">
+        <v>1116546.393007237</v>
+      </c>
+      <c r="J144">
+        <v>4841474.596715963</v>
+      </c>
+      <c r="K144">
+        <v>3985756.894127766</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>91</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116405.395634613</v>
+      </c>
+      <c r="G145">
+        <v>4841624.528625829</v>
+      </c>
+      <c r="H145">
+        <v>3986224.921996979</v>
+      </c>
+      <c r="I145">
+        <v>1116617.485106881</v>
+      </c>
+      <c r="J145">
+        <v>4841425.945099799</v>
+      </c>
+      <c r="K145">
+        <v>3985515.338723631</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>91</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116404.66551039</v>
+      </c>
+      <c r="G146">
+        <v>4841641.041460663</v>
+      </c>
+      <c r="H146">
+        <v>3986234.739433616</v>
+      </c>
+      <c r="I146">
+        <v>1116690.327784075</v>
+      </c>
+      <c r="J146">
+        <v>4841377.293483634</v>
+      </c>
+      <c r="K146">
+        <v>3985258.63468321</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>91</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116403.969855274</v>
+      </c>
+      <c r="G147">
+        <v>4841657.554295496</v>
+      </c>
+      <c r="H147">
+        <v>3986244.245750714</v>
+      </c>
+      <c r="I147">
+        <v>1116764.964145181</v>
+      </c>
+      <c r="J147">
+        <v>4841328.641867471</v>
+      </c>
+      <c r="K147">
+        <v>3984986.782006504</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>91</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116403.306040581</v>
+      </c>
+      <c r="G148">
+        <v>4841674.06713033</v>
+      </c>
+      <c r="H148">
+        <v>3986253.460063135</v>
+      </c>
+      <c r="I148">
+        <v>1116841.438358016</v>
+      </c>
+      <c r="J148">
+        <v>4841279.990251307</v>
+      </c>
+      <c r="K148">
+        <v>3984699.780693511</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>91</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116402.671709908</v>
+      </c>
+      <c r="G149">
+        <v>4841690.579965164</v>
+      </c>
+      <c r="H149">
+        <v>3986262.399776522</v>
+      </c>
+      <c r="I149">
+        <v>1116919.795677986</v>
+      </c>
+      <c r="J149">
+        <v>4841231.338635142</v>
+      </c>
+      <c r="K149">
+        <v>3984397.630744234</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>91</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116402.06474392</v>
+      </c>
+      <c r="G150">
+        <v>4841707.092799997</v>
+      </c>
+      <c r="H150">
+        <v>3986271.080785191</v>
+      </c>
+      <c r="I150">
+        <v>1117000.082474873</v>
+      </c>
+      <c r="J150">
+        <v>4841182.687018978</v>
+      </c>
+      <c r="K150">
+        <v>3984080.332158671</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>91</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116401.483230551</v>
+      </c>
+      <c r="G151">
+        <v>4841723.605634831</v>
+      </c>
+      <c r="H151">
+        <v>3986279.517642199</v>
+      </c>
+      <c r="I151">
+        <v>1117082.346260272</v>
+      </c>
+      <c r="J151">
+        <v>4841134.035402815</v>
+      </c>
+      <c r="K151">
+        <v>3983747.884936823</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>91</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116400.925439655</v>
+      </c>
+      <c r="G152">
+        <v>4841740.118469664</v>
+      </c>
+      <c r="H152">
+        <v>3986287.72370613</v>
+      </c>
+      <c r="I152">
+        <v>1117166.635715704</v>
+      </c>
+      <c r="J152">
+        <v>4841085.383786649</v>
+      </c>
+      <c r="K152">
+        <v>3983400.289078688</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>91</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116400.389801343</v>
+      </c>
+      <c r="G153">
+        <v>4841756.631304498</v>
+      </c>
+      <c r="H153">
+        <v>3986295.71126834</v>
+      </c>
+      <c r="I153">
+        <v>1117253.000721431</v>
+      </c>
+      <c r="J153">
+        <v>4841036.732170486</v>
+      </c>
+      <c r="K153">
+        <v>3983037.544584268</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>91</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116399.874887398</v>
+      </c>
+      <c r="G154">
+        <v>4841773.144139332</v>
+      </c>
+      <c r="H154">
+        <v>3986303.491663698</v>
+      </c>
+      <c r="I154">
+        <v>1117341.49238597</v>
+      </c>
+      <c r="J154">
+        <v>4840988.080554322</v>
+      </c>
+      <c r="K154">
+        <v>3982659.651453562</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>91</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116399.37939525</v>
+      </c>
+      <c r="G155">
+        <v>4841789.656974165</v>
+      </c>
+      <c r="H155">
+        <v>3986311.075367327</v>
+      </c>
+      <c r="I155">
+        <v>1117432.163076338</v>
+      </c>
+      <c r="J155">
+        <v>4840939.428938158</v>
+      </c>
+      <c r="K155">
+        <v>3982266.609686571</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>91</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116398.902134115</v>
+      </c>
+      <c r="G156">
+        <v>4841806.169808999</v>
+      </c>
+      <c r="H156">
+        <v>3986318.472079408</v>
+      </c>
+      <c r="I156">
+        <v>1117525.06644904</v>
+      </c>
+      <c r="J156">
+        <v>4840890.777321993</v>
+      </c>
+      <c r="K156">
+        <v>3981858.419283294</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>91</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116398.44201296</v>
+      </c>
+      <c r="G157">
+        <v>4841822.682643833</v>
+      </c>
+      <c r="H157">
+        <v>3986325.690799786</v>
+      </c>
+      <c r="I157">
+        <v>1117620.257481826</v>
+      </c>
+      <c r="J157">
+        <v>4840842.12570583</v>
+      </c>
+      <c r="K157">
+        <v>3981435.080243732</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>91</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116397.99803001</v>
+      </c>
+      <c r="G158">
+        <v>4841839.195478665</v>
+      </c>
+      <c r="H158">
+        <v>3986332.739893805</v>
+      </c>
+      <c r="I158">
+        <v>1117717.792506219</v>
+      </c>
+      <c r="J158">
+        <v>4840793.474089665</v>
+      </c>
+      <c r="K158">
+        <v>3980996.592567884</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>91</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116397.569263577</v>
+      </c>
+      <c r="G159">
+        <v>4841855.708313499</v>
+      </c>
+      <c r="H159">
+        <v>3986339.627150587</v>
+      </c>
+      <c r="I159">
+        <v>1117817.729240858</v>
+      </c>
+      <c r="J159">
+        <v>4840744.822473502</v>
+      </c>
+      <c r="K159">
+        <v>3980542.956255751</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>91</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116397.15486401</v>
+      </c>
+      <c r="G160">
+        <v>4841872.221148333</v>
+      </c>
+      <c r="H160">
+        <v>3986346.359834767</v>
+      </c>
+      <c r="I160">
+        <v>1117920.126825647</v>
+      </c>
+      <c r="J160">
+        <v>4840696.170857337</v>
+      </c>
+      <c r="K160">
+        <v>3980074.171307332</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>91</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116579.337568248</v>
+      </c>
+      <c r="G161">
+        <v>4841121.513049986</v>
+      </c>
+      <c r="H161">
+        <v>3985228.645849021</v>
+      </c>
+      <c r="I161">
+        <v>1114860.616314005</v>
+      </c>
+      <c r="J161">
+        <v>4843223.315251738</v>
+      </c>
+      <c r="K161">
+        <v>3984366.316500091</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>91</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116579.337568248</v>
+      </c>
+      <c r="G162">
+        <v>4841121.513049986</v>
+      </c>
+      <c r="H162">
+        <v>3985228.645849021</v>
+      </c>
+      <c r="I162">
+        <v>1114890.230290782</v>
+      </c>
+      <c r="J162">
+        <v>4843174.663663095</v>
+      </c>
+      <c r="K162">
+        <v>3984670.112186724</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>91</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116579.337568248</v>
+      </c>
+      <c r="G163">
+        <v>4841121.513049986</v>
+      </c>
+      <c r="H163">
+        <v>3985228.645849021</v>
+      </c>
+      <c r="I163">
+        <v>1114920.573484494</v>
+      </c>
+      <c r="J163">
+        <v>4843126.01207445</v>
+      </c>
+      <c r="K163">
+        <v>3984958.759227871</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>91</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116579.337568248</v>
+      </c>
+      <c r="G164">
+        <v>4841121.513049986</v>
+      </c>
+      <c r="H164">
+        <v>3985228.645849021</v>
+      </c>
+      <c r="I164">
+        <v>1114951.663851436</v>
+      </c>
+      <c r="J164">
+        <v>4843077.360485807</v>
+      </c>
+      <c r="K164">
+        <v>3985232.257623534</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>91</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116579.337568248</v>
+      </c>
+      <c r="G165">
+        <v>4841121.513049986</v>
+      </c>
+      <c r="H165">
+        <v>3985228.645849021</v>
+      </c>
+      <c r="I165">
+        <v>1114983.51979006</v>
+      </c>
+      <c r="J165">
+        <v>4843028.708897164</v>
+      </c>
+      <c r="K165">
+        <v>3985490.607373712</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>91</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116579.337568248</v>
+      </c>
+      <c r="G166">
+        <v>4841121.513049986</v>
+      </c>
+      <c r="H166">
+        <v>3985228.645849021</v>
+      </c>
+      <c r="I166">
+        <v>1115016.160151867</v>
+      </c>
+      <c r="J166">
+        <v>4842980.05730852</v>
+      </c>
+      <c r="K166">
+        <v>3985733.808478404</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>91</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116579.337568248</v>
+      </c>
+      <c r="G167">
+        <v>4841121.513049986</v>
+      </c>
+      <c r="H167">
+        <v>3985228.645849021</v>
+      </c>
+      <c r="I167">
+        <v>1115049.604252554</v>
+      </c>
+      <c r="J167">
+        <v>4842931.405719876</v>
+      </c>
+      <c r="K167">
+        <v>3985961.860937612</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>91</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116579.337568248</v>
+      </c>
+      <c r="G168">
+        <v>4841121.513049986</v>
+      </c>
+      <c r="H168">
+        <v>3985228.645849021</v>
+      </c>
+      <c r="I168">
+        <v>1115083.871883453</v>
+      </c>
+      <c r="J168">
+        <v>4842882.754131232</v>
+      </c>
+      <c r="K168">
+        <v>3986174.764751335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>91</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116579.337568248</v>
+      </c>
+      <c r="G169">
+        <v>4841138.025858792</v>
+      </c>
+      <c r="H169">
+        <v>3985228.645849021</v>
+      </c>
+      <c r="I169">
+        <v>1115118.983323237</v>
+      </c>
+      <c r="J169">
+        <v>4842834.102542589</v>
+      </c>
+      <c r="K169">
+        <v>3986372.519919572</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>91</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116530.65696813</v>
+      </c>
+      <c r="G170">
+        <v>4841154.538667598</v>
+      </c>
+      <c r="H170">
+        <v>3985427.900271669</v>
+      </c>
+      <c r="I170">
+        <v>1115154.959349924</v>
+      </c>
+      <c r="J170">
+        <v>4842785.450953946</v>
+      </c>
+      <c r="K170">
+        <v>3986555.126442326</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>91</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116502.059557643</v>
+      </c>
+      <c r="G171">
+        <v>4841171.051476405</v>
+      </c>
+      <c r="H171">
+        <v>3985546.586396057</v>
+      </c>
+      <c r="I171">
+        <v>1115191.82125317</v>
+      </c>
+      <c r="J171">
+        <v>4842736.799365302</v>
+      </c>
+      <c r="K171">
+        <v>3986722.584319594</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>91</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116484.006774131</v>
+      </c>
+      <c r="G172">
+        <v>4841187.564285211</v>
+      </c>
+      <c r="H172">
+        <v>3985631.403347468</v>
+      </c>
+      <c r="I172">
+        <v>1115229.590846872</v>
+      </c>
+      <c r="J172">
+        <v>4842688.147776659</v>
+      </c>
+      <c r="K172">
+        <v>3986874.893551377</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>91</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116471.416836191</v>
+      </c>
+      <c r="G173">
+        <v>4841204.077094017</v>
+      </c>
+      <c r="H173">
+        <v>3985697.450262091</v>
+      </c>
+      <c r="I173">
+        <v>1115268.290482071</v>
+      </c>
+      <c r="J173">
+        <v>4842639.496188016</v>
+      </c>
+      <c r="K173">
+        <v>3987012.054137675</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>91</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116462.024365462</v>
+      </c>
+      <c r="G174">
+        <v>4841220.589902824</v>
+      </c>
+      <c r="H174">
+        <v>3985751.547808234</v>
+      </c>
+      <c r="I174">
+        <v>1115307.943060184</v>
+      </c>
+      <c r="J174">
+        <v>4842590.844599372</v>
+      </c>
+      <c r="K174">
+        <v>3987134.066078488</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>91</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116454.680764971</v>
+      </c>
+      <c r="G175">
+        <v>4841237.102711629</v>
+      </c>
+      <c r="H175">
+        <v>3985797.364480887</v>
+      </c>
+      <c r="I175">
+        <v>1115348.572046553</v>
+      </c>
+      <c r="J175">
+        <v>4842542.193010728</v>
+      </c>
+      <c r="K175">
+        <v>3987240.929373817</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>91</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116448.739257469</v>
+      </c>
+      <c r="G176">
+        <v>4841253.615520435</v>
+      </c>
+      <c r="H176">
+        <v>3985837.102099953</v>
+      </c>
+      <c r="I176">
+        <v>1115390.201484334</v>
+      </c>
+      <c r="J176">
+        <v>4842493.541422085</v>
+      </c>
+      <c r="K176">
+        <v>3987332.64402366</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>91</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116443.805689165</v>
+      </c>
+      <c r="G177">
+        <v>4841270.128329243</v>
+      </c>
+      <c r="H177">
+        <v>3985872.186485405</v>
+      </c>
+      <c r="I177">
+        <v>1115432.856008722</v>
+      </c>
+      <c r="J177">
+        <v>4842444.889833441</v>
+      </c>
+      <c r="K177">
+        <v>3987409.210028018</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>91</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116439.624861232</v>
+      </c>
+      <c r="G178">
+        <v>4841286.641138048</v>
+      </c>
+      <c r="H178">
+        <v>3985903.594070375</v>
+      </c>
+      <c r="I178">
+        <v>1115476.560861531</v>
+      </c>
+      <c r="J178">
+        <v>4842396.238244798</v>
+      </c>
+      <c r="K178">
+        <v>3987470.627386892</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>91</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116436.023485851</v>
+      </c>
+      <c r="G179">
+        <v>4841303.153946854</v>
+      </c>
+      <c r="H179">
+        <v>3985932.022923005</v>
+      </c>
+      <c r="I179">
+        <v>1115521.341906133</v>
+      </c>
+      <c r="J179">
+        <v>4842347.586656153</v>
+      </c>
+      <c r="K179">
+        <v>3987516.896100281</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>91</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116432.879299053</v>
+      </c>
+      <c r="G180">
+        <v>4841319.666755661</v>
+      </c>
+      <c r="H180">
+        <v>3985957.989433816</v>
+      </c>
+      <c r="I180">
+        <v>1115567.225642761</v>
+      </c>
+      <c r="J180">
+        <v>4842298.93506751</v>
+      </c>
+      <c r="K180">
+        <v>3987548.016168185</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>91</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116430.103279283</v>
+      </c>
+      <c r="G181">
+        <v>4841336.179564467</v>
+      </c>
+      <c r="H181">
+        <v>3985981.886357605</v>
+      </c>
+      <c r="I181">
+        <v>1115614.23922419</v>
+      </c>
+      <c r="J181">
+        <v>4842250.283478867</v>
+      </c>
+      <c r="K181">
+        <v>3987563.987590604</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>91</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116427.628882601</v>
+      </c>
+      <c r="G182">
+        <v>4841352.692373273</v>
+      </c>
+      <c r="H182">
+        <v>3986004.019381196</v>
+      </c>
+      <c r="I182">
+        <v>1115662.410471811</v>
+      </c>
+      <c r="J182">
+        <v>4842201.631890223</v>
+      </c>
+      <c r="K182">
+        <v>3987564.810367538</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>91</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116425.405246403</v>
+      </c>
+      <c r="G183">
+        <v>4841369.20518208</v>
+      </c>
+      <c r="H183">
+        <v>3986024.63109755</v>
+      </c>
+      <c r="I183">
+        <v>1115711.767892087</v>
+      </c>
+      <c r="J183">
+        <v>4842152.980301579</v>
+      </c>
+      <c r="K183">
+        <v>3987550.484498986</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>91</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116423.392743495</v>
+      </c>
+      <c r="G184">
+        <v>4841385.717990885</v>
+      </c>
+      <c r="H184">
+        <v>3986043.917257093</v>
+      </c>
+      <c r="I184">
+        <v>1115762.34069343</v>
+      </c>
+      <c r="J184">
+        <v>4842104.328712936</v>
+      </c>
+      <c r="K184">
+        <v>3987521.00998495</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>91</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>20</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116421.559983819</v>
+      </c>
+      <c r="G185">
+        <v>4841402.230799692</v>
+      </c>
+      <c r="H185">
+        <v>3986062.038101714</v>
+      </c>
+      <c r="I185">
+        <v>1115814.15880348</v>
+      </c>
+      <c r="J185">
+        <v>4842055.677124293</v>
+      </c>
+      <c r="K185">
+        <v>3987476.386825429</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>91</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" t="s">
+        <v>20</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116419.881738442</v>
+      </c>
+      <c r="G186">
+        <v>4841418.743608498</v>
+      </c>
+      <c r="H186">
+        <v>3986079.126465453</v>
+      </c>
+      <c r="I186">
+        <v>1115867.252886818</v>
+      </c>
+      <c r="J186">
+        <v>4842007.025535649</v>
+      </c>
+      <c r="K186">
+        <v>3987416.615020423</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>91</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" t="s">
+        <v>20</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116418.337468577</v>
+      </c>
+      <c r="G187">
+        <v>4841435.256417304</v>
+      </c>
+      <c r="H187">
+        <v>3986095.293689263</v>
+      </c>
+      <c r="I187">
+        <v>1115921.654363113</v>
+      </c>
+      <c r="J187">
+        <v>4841958.373947005</v>
+      </c>
+      <c r="K187">
+        <v>3987341.694569933</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>91</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" t="s">
+        <v>20</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116416.910261912</v>
+      </c>
+      <c r="G188">
+        <v>4841451.769226111</v>
+      </c>
+      <c r="H188">
+        <v>3986110.634021563</v>
+      </c>
+      <c r="I188">
+        <v>1115977.395425713</v>
+      </c>
+      <c r="J188">
+        <v>4841909.722358362</v>
+      </c>
+      <c r="K188">
+        <v>3987251.625473958</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>91</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116415.586049419</v>
+      </c>
+      <c r="G189">
+        <v>4841468.282034916</v>
+      </c>
+      <c r="H189">
+        <v>3986125.227947202</v>
+      </c>
+      <c r="I189">
+        <v>1116034.509060698</v>
+      </c>
+      <c r="J189">
+        <v>4841861.070769719</v>
+      </c>
+      <c r="K189">
+        <v>3987146.407732497</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>91</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" t="s">
+        <v>20</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116414.353019306</v>
+      </c>
+      <c r="G190">
+        <v>4841484.794843723</v>
+      </c>
+      <c r="H190">
+        <v>3986139.144743466</v>
+      </c>
+      <c r="I190">
+        <v>1116093.029066402</v>
+      </c>
+      <c r="J190">
+        <v>4841812.419181074</v>
+      </c>
+      <c r="K190">
+        <v>3987026.041345551</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>91</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116413.201172052</v>
+      </c>
+      <c r="G191">
+        <v>4841501.307652529</v>
+      </c>
+      <c r="H191">
+        <v>3986152.44446898</v>
+      </c>
+      <c r="I191">
+        <v>1116152.990073408</v>
+      </c>
+      <c r="J191">
+        <v>4841763.767592431</v>
+      </c>
+      <c r="K191">
+        <v>3986890.526313121</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>91</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116412.121978107</v>
+      </c>
+      <c r="G192">
+        <v>4841517.820461335</v>
+      </c>
+      <c r="H192">
+        <v>3986165.179530097</v>
+      </c>
+      <c r="I192">
+        <v>1116214.427565049</v>
+      </c>
+      <c r="J192">
+        <v>4841715.116003788</v>
+      </c>
+      <c r="K192">
+        <v>3986739.862635205</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>91</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116411.108111379</v>
+      </c>
+      <c r="G193">
+        <v>4841534.333270142</v>
+      </c>
+      <c r="H193">
+        <v>3986177.395928112</v>
+      </c>
+      <c r="I193">
+        <v>1116277.377898401</v>
+      </c>
+      <c r="J193">
+        <v>4841666.464415144</v>
+      </c>
+      <c r="K193">
+        <v>3986574.050311805</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>91</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116410.153239476</v>
+      </c>
+      <c r="G194">
+        <v>4841550.846078947</v>
+      </c>
+      <c r="H194">
+        <v>3986189.13426229</v>
+      </c>
+      <c r="I194">
+        <v>1116341.878325797</v>
+      </c>
+      <c r="J194">
+        <v>4841617.8128265</v>
+      </c>
+      <c r="K194">
+        <v>3986393.08934292</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>91</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" t="s">
+        <v>20</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116409.251856944</v>
+      </c>
+      <c r="G195">
+        <v>4841567.358887753</v>
+      </c>
+      <c r="H195">
+        <v>3986200.43054393</v>
+      </c>
+      <c r="I195">
+        <v>1116407.967016879</v>
+      </c>
+      <c r="J195">
+        <v>4841569.161237856</v>
+      </c>
+      <c r="K195">
+        <v>3986196.97972855</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>91</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116408.399151472</v>
+      </c>
+      <c r="G196">
+        <v>4841583.871696561</v>
+      </c>
+      <c r="H196">
+        <v>3986211.316862636</v>
+      </c>
+      <c r="I196">
+        <v>1116475.683081179</v>
+      </c>
+      <c r="J196">
+        <v>4841520.509649213</v>
+      </c>
+      <c r="K196">
+        <v>3985985.721468695</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>91</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116407.59089562</v>
+      </c>
+      <c r="G197">
+        <v>4841600.384505366</v>
+      </c>
+      <c r="H197">
+        <v>3986221.821935864</v>
+      </c>
+      <c r="I197">
+        <v>1116545.066591264</v>
+      </c>
+      <c r="J197">
+        <v>4841471.85806057</v>
+      </c>
+      <c r="K197">
+        <v>3985759.314563355</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>91</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116406.823358528</v>
+      </c>
+      <c r="G198">
+        <v>4841616.897314172</v>
+      </c>
+      <c r="H198">
+        <v>3986231.97156546</v>
+      </c>
+      <c r="I198">
+        <v>1116616.158606453</v>
+      </c>
+      <c r="J198">
+        <v>4841423.206471926</v>
+      </c>
+      <c r="K198">
+        <v>3985517.75901253</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>91</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116406.093233371</v>
+      </c>
+      <c r="G199">
+        <v>4841633.410122979</v>
+      </c>
+      <c r="H199">
+        <v>3986241.789019459</v>
+      </c>
+      <c r="I199">
+        <v>1116689.001197113</v>
+      </c>
+      <c r="J199">
+        <v>4841374.554883283</v>
+      </c>
+      <c r="K199">
+        <v>3985261.05481622</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>91</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>20</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116405.397577365</v>
+      </c>
+      <c r="G200">
+        <v>4841649.922931785</v>
+      </c>
+      <c r="H200">
+        <v>3986251.295353369</v>
+      </c>
+      <c r="I200">
+        <v>1116763.637469554</v>
+      </c>
+      <c r="J200">
+        <v>4841325.90329464</v>
+      </c>
+      <c r="K200">
+        <v>3984989.201974425</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>91</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>20</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116404.733761823</v>
+      </c>
+      <c r="G201">
+        <v>4841666.435740591</v>
+      </c>
+      <c r="H201">
+        <v>3986260.509682086</v>
+      </c>
+      <c r="I201">
+        <v>1116840.11159154</v>
+      </c>
+      <c r="J201">
+        <v>4841277.251705996</v>
+      </c>
+      <c r="K201">
+        <v>3984702.200487146</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>91</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" t="s">
+        <v>20</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116404.099430339</v>
+      </c>
+      <c r="G202">
+        <v>4841682.948549398</v>
+      </c>
+      <c r="H202">
+        <v>3986269.449411282</v>
+      </c>
+      <c r="I202">
+        <v>1116918.468818425</v>
+      </c>
+      <c r="J202">
+        <v>4841228.600117352</v>
+      </c>
+      <c r="K202">
+        <v>3984400.050354381</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>91</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>20</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116403.492463575</v>
+      </c>
+      <c r="G203">
+        <v>4841699.461358204</v>
+      </c>
+      <c r="H203">
+        <v>3986278.130435303</v>
+      </c>
+      <c r="I203">
+        <v>1116998.755519934</v>
+      </c>
+      <c r="J203">
+        <v>4841179.948528709</v>
+      </c>
+      <c r="K203">
+        <v>3984082.751576132</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>91</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" t="s">
+        <v>20</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116402.910949462</v>
+      </c>
+      <c r="G204">
+        <v>4841715.97416701</v>
+      </c>
+      <c r="H204">
+        <v>3986286.567307232</v>
+      </c>
+      <c r="I204">
+        <v>1117081.019207606</v>
+      </c>
+      <c r="J204">
+        <v>4841131.296940065</v>
+      </c>
+      <c r="K204">
+        <v>3983750.304152397</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>91</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" t="s">
+        <v>20</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116402.353157853</v>
+      </c>
+      <c r="G205">
+        <v>4841732.486975816</v>
+      </c>
+      <c r="H205">
+        <v>3986294.773385675</v>
+      </c>
+      <c r="I205">
+        <v>1117165.308562906</v>
+      </c>
+      <c r="J205">
+        <v>4841082.645351421</v>
+      </c>
+      <c r="K205">
+        <v>3983402.708083178</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>91</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116401.817518856</v>
+      </c>
+      <c r="G206">
+        <v>4841748.999784622</v>
+      </c>
+      <c r="H206">
+        <v>3986302.76096201</v>
+      </c>
+      <c r="I206">
+        <v>1117251.673466034</v>
+      </c>
+      <c r="J206">
+        <v>4841033.993762777</v>
+      </c>
+      <c r="K206">
+        <v>3983039.963368474</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>91</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" t="s">
+        <v>20</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116401.302604252</v>
+      </c>
+      <c r="G207">
+        <v>4841765.512593429</v>
+      </c>
+      <c r="H207">
+        <v>3986310.541371129</v>
+      </c>
+      <c r="I207">
+        <v>1117340.165025449</v>
+      </c>
+      <c r="J207">
+        <v>4840985.342174134</v>
+      </c>
+      <c r="K207">
+        <v>3982662.070008284</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>91</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" t="s">
+        <v>20</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116400.80711147</v>
+      </c>
+      <c r="G208">
+        <v>4841782.025402235</v>
+      </c>
+      <c r="H208">
+        <v>3986318.125088169</v>
+      </c>
+      <c r="I208">
+        <v>1117430.835608103</v>
+      </c>
+      <c r="J208">
+        <v>4840936.690585491</v>
+      </c>
+      <c r="K208">
+        <v>3982269.02800261</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>91</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116400.329849726</v>
+      </c>
+      <c r="G209">
+        <v>4841798.538211041</v>
+      </c>
+      <c r="H209">
+        <v>3986325.521813331</v>
+      </c>
+      <c r="I209">
+        <v>1117523.738870439</v>
+      </c>
+      <c r="J209">
+        <v>4840888.038996846</v>
+      </c>
+      <c r="K209">
+        <v>3981860.837351451</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>91</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116399.869727982</v>
+      </c>
+      <c r="G210">
+        <v>4841815.051019847</v>
+      </c>
+      <c r="H210">
+        <v>3986332.740546475</v>
+      </c>
+      <c r="I210">
+        <v>1117618.929790142</v>
+      </c>
+      <c r="J210">
+        <v>4840839.387408203</v>
+      </c>
+      <c r="K210">
+        <v>3981437.498054808</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>91</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" t="s">
+        <v>20</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116399.425744464</v>
+      </c>
+      <c r="G211">
+        <v>4841831.563828654</v>
+      </c>
+      <c r="H211">
+        <v>3986339.78965296</v>
+      </c>
+      <c r="I211">
+        <v>1117716.464698667</v>
+      </c>
+      <c r="J211">
+        <v>4840790.73581956</v>
+      </c>
+      <c r="K211">
+        <v>3980999.010112678</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>91</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116398.996977482</v>
+      </c>
+      <c r="G212">
+        <v>4841848.07663746</v>
+      </c>
+      <c r="H212">
+        <v>3986346.676921922</v>
+      </c>
+      <c r="I212">
+        <v>1117816.401314585</v>
+      </c>
+      <c r="J212">
+        <v>4840742.084230917</v>
+      </c>
+      <c r="K212">
+        <v>3980545.373525064</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>91</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116398.582577385</v>
+      </c>
+      <c r="G213">
+        <v>4841864.589446266</v>
+      </c>
+      <c r="H213">
+        <v>3986353.409618009</v>
+      </c>
+      <c r="I213">
+        <v>1117918.79877773</v>
+      </c>
+      <c r="J213">
+        <v>4840693.432642273</v>
+      </c>
+      <c r="K213">
+        <v>3980076.588291966</v>
       </c>
     </row>
   </sheetData>
